--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>159100</v>
+        <v>179700</v>
       </c>
       <c r="E8" s="3">
+        <v>159200</v>
+      </c>
+      <c r="F8" s="3">
         <v>151600</v>
       </c>
-      <c r="F8" s="3">
-        <v>136800</v>
-      </c>
       <c r="G8" s="3">
-        <v>171600</v>
+        <v>136900</v>
       </c>
       <c r="H8" s="3">
+        <v>133400</v>
+      </c>
+      <c r="I8" s="3">
         <v>129300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>121600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E9" s="3">
         <v>48800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>44800</v>
       </c>
-      <c r="F9" s="3">
-        <v>41100</v>
-      </c>
       <c r="G9" s="3">
-        <v>61800</v>
+        <v>41200</v>
       </c>
       <c r="H9" s="3">
+        <v>46600</v>
+      </c>
+      <c r="I9" s="3">
         <v>45900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>46000</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>110300</v>
+        <v>128700</v>
       </c>
       <c r="E10" s="3">
+        <v>110400</v>
+      </c>
+      <c r="F10" s="3">
         <v>106800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>95700</v>
       </c>
-      <c r="G10" s="3">
-        <v>109800</v>
-      </c>
       <c r="H10" s="3">
-        <v>83400</v>
+        <v>86800</v>
       </c>
       <c r="I10" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="J10" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K10" s="3">
         <v>75600</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>89800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>62700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>33300</v>
-      </c>
-      <c r="G14" s="3">
-        <v>22600</v>
+        <v>4500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-183600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-94800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>54600</v>
       </c>
-      <c r="G17" s="3">
-        <v>34600</v>
-      </c>
       <c r="H17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I17" s="3">
         <v>41500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>342600</v>
+        <v>230700</v>
       </c>
       <c r="E18" s="3">
-        <v>246400</v>
+        <v>342800</v>
       </c>
       <c r="F18" s="3">
-        <v>82200</v>
+        <v>246500</v>
       </c>
       <c r="G18" s="3">
-        <v>137000</v>
+        <v>82300</v>
       </c>
       <c r="H18" s="3">
+        <v>128500</v>
+      </c>
+      <c r="I18" s="3">
         <v>87800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-73100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1028,48 +1061,54 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>347600</v>
+        <v>234400</v>
       </c>
       <c r="E21" s="3">
-        <v>250000</v>
+        <v>347700</v>
       </c>
       <c r="F21" s="3">
+        <v>250100</v>
+      </c>
+      <c r="G21" s="3">
         <v>85600</v>
       </c>
-      <c r="G21" s="3">
-        <v>140300</v>
-      </c>
       <c r="H21" s="3">
-        <v>91200</v>
+        <v>131900</v>
       </c>
       <c r="I21" s="3">
-        <v>51900</v>
+        <v>91300</v>
       </c>
       <c r="J21" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-69600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,69 +1133,78 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>342700</v>
+        <v>230800</v>
       </c>
       <c r="E23" s="3">
-        <v>246400</v>
+        <v>342800</v>
       </c>
       <c r="F23" s="3">
-        <v>82200</v>
+        <v>246500</v>
       </c>
       <c r="G23" s="3">
-        <v>137000</v>
+        <v>82300</v>
       </c>
       <c r="H23" s="3">
-        <v>87800</v>
+        <v>128600</v>
       </c>
       <c r="I23" s="3">
+        <v>87900</v>
+      </c>
+      <c r="J23" s="3">
         <v>48400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-73200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>85500</v>
+        <v>69000</v>
       </c>
       <c r="E24" s="3">
+        <v>85600</v>
+      </c>
+      <c r="F24" s="3">
         <v>60000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28900</v>
       </c>
-      <c r="G24" s="3">
-        <v>33200</v>
-      </c>
       <c r="H24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I24" s="3">
         <v>20100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-13900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>257200</v>
+        <v>161800</v>
       </c>
       <c r="E26" s="3">
-        <v>186400</v>
+        <v>257300</v>
       </c>
       <c r="F26" s="3">
+        <v>186500</v>
+      </c>
+      <c r="G26" s="3">
         <v>53400</v>
       </c>
-      <c r="G26" s="3">
-        <v>103800</v>
-      </c>
       <c r="H26" s="3">
+        <v>96600</v>
+      </c>
+      <c r="I26" s="3">
         <v>67800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-59300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>255800</v>
+        <v>159400</v>
       </c>
       <c r="E27" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F27" s="3">
         <v>185400</v>
       </c>
-      <c r="F27" s="3">
-        <v>52600</v>
-      </c>
       <c r="G27" s="3">
-        <v>101500</v>
+        <v>52700</v>
       </c>
       <c r="H27" s="3">
-        <v>67100</v>
+        <v>94300</v>
       </c>
       <c r="I27" s="3">
-        <v>38000</v>
+        <v>67200</v>
       </c>
       <c r="J27" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-59900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1283,25 +1343,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-86100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I29" s="3">
         <v>6200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-16300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>7700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1436,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1376,48 +1445,54 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>255800</v>
+        <v>159400</v>
       </c>
       <c r="E33" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F33" s="3">
         <v>185400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>101500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>73400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>255800</v>
+        <v>159400</v>
       </c>
       <c r="E35" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F35" s="3">
         <v>185400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>101500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>73400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192100</v>
+        <v>225400</v>
       </c>
       <c r="E41" s="3">
+        <v>192200</v>
+      </c>
+      <c r="F41" s="3">
         <v>108000</v>
       </c>
-      <c r="F41" s="3">
-        <v>375400</v>
-      </c>
       <c r="G41" s="3">
+        <v>375500</v>
+      </c>
+      <c r="H41" s="3">
         <v>70300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>67500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>42600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E43" s="3">
         <v>25800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>22600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E45" s="3">
         <v>38300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>25800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>256200</v>
+        <v>320400</v>
       </c>
       <c r="E46" s="3">
-        <v>165000</v>
+        <v>256300</v>
       </c>
       <c r="F46" s="3">
-        <v>450000</v>
+        <v>165100</v>
       </c>
       <c r="G46" s="3">
+        <v>450100</v>
+      </c>
+      <c r="H46" s="3">
         <v>120300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>81500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>109900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9629600</v>
+        <v>10898800</v>
       </c>
       <c r="E47" s="3">
-        <v>8259100</v>
+        <v>9633400</v>
       </c>
       <c r="F47" s="3">
-        <v>7355000</v>
+        <v>8262400</v>
       </c>
       <c r="G47" s="3">
-        <v>8523800</v>
+        <v>7357900</v>
       </c>
       <c r="H47" s="3">
-        <v>8110800</v>
+        <v>8527200</v>
       </c>
       <c r="I47" s="3">
-        <v>7909900</v>
+        <v>8114000</v>
       </c>
       <c r="J47" s="3">
+        <v>7913000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7771300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>103600</v>
+        <v>108000</v>
       </c>
       <c r="E48" s="3">
+        <v>103700</v>
+      </c>
+      <c r="F48" s="3">
         <v>104600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65200</v>
       </c>
-      <c r="G48" s="3">
-        <v>61100</v>
-      </c>
       <c r="H48" s="3">
+        <v>61200</v>
+      </c>
+      <c r="I48" s="3">
         <v>58500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>56800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>56100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E49" s="3">
         <v>49700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>51400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>52400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>154400</v>
       </c>
-      <c r="H49" s="3">
-        <v>155600</v>
-      </c>
       <c r="I49" s="3">
-        <v>156900</v>
+        <v>155700</v>
       </c>
       <c r="J49" s="3">
+        <v>157000</v>
+      </c>
+      <c r="K49" s="3">
         <v>158200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>275300</v>
+        <v>281200</v>
       </c>
       <c r="E52" s="3">
-        <v>231500</v>
+        <v>275400</v>
       </c>
       <c r="F52" s="3">
-        <v>199900</v>
+        <v>231600</v>
       </c>
       <c r="G52" s="3">
-        <v>279700</v>
+        <v>200000</v>
       </c>
       <c r="H52" s="3">
-        <v>270800</v>
+        <v>279800</v>
       </c>
       <c r="I52" s="3">
-        <v>249600</v>
+        <v>270900</v>
       </c>
       <c r="J52" s="3">
+        <v>249700</v>
+      </c>
+      <c r="K52" s="3">
         <v>236300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10314500</v>
+        <v>11658100</v>
       </c>
       <c r="E54" s="3">
-        <v>8811700</v>
+        <v>10318500</v>
       </c>
       <c r="F54" s="3">
-        <v>8122500</v>
+        <v>8815200</v>
       </c>
       <c r="G54" s="3">
-        <v>9139300</v>
+        <v>8125700</v>
       </c>
       <c r="H54" s="3">
-        <v>8704800</v>
+        <v>9142900</v>
       </c>
       <c r="I54" s="3">
-        <v>8454700</v>
+        <v>8708200</v>
       </c>
       <c r="J54" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="K54" s="3">
         <v>8331700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E57" s="3">
         <v>58800</v>
       </c>
-      <c r="E57" s="3">
-        <v>41700</v>
-      </c>
       <c r="F57" s="3">
+        <v>41800</v>
+      </c>
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>34100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>85500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>74200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>625200</v>
+        <v>327000</v>
       </c>
       <c r="E58" s="3">
-        <v>248200</v>
+        <v>625400</v>
       </c>
       <c r="F58" s="3">
-        <v>184100</v>
+        <v>248300</v>
       </c>
       <c r="G58" s="3">
-        <v>351600</v>
+        <v>184200</v>
       </c>
       <c r="H58" s="3">
-        <v>173200</v>
+        <v>351700</v>
       </c>
       <c r="I58" s="3">
+        <v>173300</v>
+      </c>
+      <c r="J58" s="3">
         <v>168600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>179000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>182300</v>
+        <v>166000</v>
       </c>
       <c r="E59" s="3">
+        <v>182400</v>
+      </c>
+      <c r="F59" s="3">
         <v>176000</v>
       </c>
-      <c r="F59" s="3">
-        <v>130800</v>
-      </c>
       <c r="G59" s="3">
+        <v>130900</v>
+      </c>
+      <c r="H59" s="3">
         <v>154300</v>
       </c>
-      <c r="H59" s="3">
-        <v>181100</v>
-      </c>
       <c r="I59" s="3">
+        <v>181200</v>
+      </c>
+      <c r="J59" s="3">
         <v>98200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>81500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>866300</v>
+        <v>548400</v>
       </c>
       <c r="E60" s="3">
-        <v>465900</v>
+        <v>866700</v>
       </c>
       <c r="F60" s="3">
-        <v>352600</v>
+        <v>466100</v>
       </c>
       <c r="G60" s="3">
-        <v>545500</v>
+        <v>352800</v>
       </c>
       <c r="H60" s="3">
-        <v>388500</v>
+        <v>545800</v>
       </c>
       <c r="I60" s="3">
-        <v>352200</v>
+        <v>388700</v>
       </c>
       <c r="J60" s="3">
+        <v>352400</v>
+      </c>
+      <c r="K60" s="3">
         <v>334700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4589600</v>
+        <v>5030900</v>
       </c>
       <c r="E61" s="3">
-        <v>4495400</v>
+        <v>4591400</v>
       </c>
       <c r="F61" s="3">
-        <v>4599700</v>
+        <v>4497200</v>
       </c>
       <c r="G61" s="3">
-        <v>5458900</v>
+        <v>4601500</v>
       </c>
       <c r="H61" s="3">
-        <v>5407000</v>
+        <v>5461000</v>
       </c>
       <c r="I61" s="3">
-        <v>5290900</v>
+        <v>5409100</v>
       </c>
       <c r="J61" s="3">
+        <v>5293000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5225000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1801500</v>
+        <v>2178100</v>
       </c>
       <c r="E62" s="3">
-        <v>1291100</v>
+        <v>1802300</v>
       </c>
       <c r="F62" s="3">
-        <v>993600</v>
+        <v>1291600</v>
       </c>
       <c r="G62" s="3">
-        <v>914300</v>
+        <v>994000</v>
       </c>
       <c r="H62" s="3">
-        <v>786200</v>
+        <v>914700</v>
       </c>
       <c r="I62" s="3">
-        <v>755600</v>
+        <v>786500</v>
       </c>
       <c r="J62" s="3">
+        <v>755900</v>
+      </c>
+      <c r="K62" s="3">
         <v>731900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7264400</v>
+        <v>7766600</v>
       </c>
       <c r="E66" s="3">
-        <v>6260000</v>
+        <v>7267300</v>
       </c>
       <c r="F66" s="3">
-        <v>5954300</v>
+        <v>6262400</v>
       </c>
       <c r="G66" s="3">
-        <v>6929100</v>
+        <v>5956600</v>
       </c>
       <c r="H66" s="3">
-        <v>6592300</v>
+        <v>6931900</v>
       </c>
       <c r="I66" s="3">
-        <v>6408700</v>
+        <v>6594900</v>
       </c>
       <c r="J66" s="3">
+        <v>6411200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6301200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>998800</v>
+        <v>1138400</v>
       </c>
       <c r="E72" s="3">
-        <v>758700</v>
+        <v>999200</v>
       </c>
       <c r="F72" s="3">
-        <v>588500</v>
+        <v>759000</v>
       </c>
       <c r="G72" s="3">
-        <v>635600</v>
+        <v>588700</v>
       </c>
       <c r="H72" s="3">
-        <v>547700</v>
+        <v>635900</v>
       </c>
       <c r="I72" s="3">
-        <v>487200</v>
+        <v>547900</v>
       </c>
       <c r="J72" s="3">
+        <v>487400</v>
+      </c>
+      <c r="K72" s="3">
         <v>478100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3050100</v>
+        <v>3891400</v>
       </c>
       <c r="E76" s="3">
-        <v>2551700</v>
+        <v>3051300</v>
       </c>
       <c r="F76" s="3">
-        <v>2168200</v>
+        <v>2552700</v>
       </c>
       <c r="G76" s="3">
-        <v>2210200</v>
+        <v>2169000</v>
       </c>
       <c r="H76" s="3">
-        <v>2112500</v>
+        <v>2211000</v>
       </c>
       <c r="I76" s="3">
-        <v>2046000</v>
+        <v>2113400</v>
       </c>
       <c r="J76" s="3">
+        <v>2046800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2030500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>255800</v>
+        <v>159400</v>
       </c>
       <c r="E81" s="3">
+        <v>255900</v>
+      </c>
+      <c r="F81" s="3">
         <v>185400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>101500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>73400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3500</v>
       </c>
       <c r="J83" s="3">
         <v>3500</v>
       </c>
       <c r="K83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>75200</v>
       </c>
-      <c r="E89" s="3">
-        <v>53300</v>
-      </c>
       <c r="F89" s="3">
+        <v>53400</v>
+      </c>
+      <c r="G89" s="3">
         <v>15600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>54800</v>
       </c>
-      <c r="I89" s="3">
-        <v>61700</v>
-      </c>
       <c r="J89" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K89" s="3">
         <v>44600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-893700</v>
+        <v>-878500</v>
       </c>
       <c r="E94" s="3">
-        <v>-544500</v>
+        <v>-894000</v>
       </c>
       <c r="F94" s="3">
-        <v>267500</v>
+        <v>-544700</v>
       </c>
       <c r="G94" s="3">
-        <v>-259300</v>
+        <v>267600</v>
       </c>
       <c r="H94" s="3">
-        <v>-121300</v>
+        <v>-259400</v>
       </c>
       <c r="I94" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-50200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-47500</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-11000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-32900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>902700</v>
+        <v>910900</v>
       </c>
       <c r="E100" s="3">
-        <v>223700</v>
+        <v>903000</v>
       </c>
       <c r="F100" s="3">
+        <v>223800</v>
+      </c>
+      <c r="G100" s="3">
         <v>22000</v>
       </c>
-      <c r="G100" s="3">
-        <v>240900</v>
-      </c>
       <c r="H100" s="3">
+        <v>241000</v>
+      </c>
+      <c r="I100" s="3">
         <v>90100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>142300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E102" s="3">
         <v>84100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-267400</v>
-      </c>
       <c r="F102" s="3">
-        <v>305100</v>
+        <v>-267500</v>
       </c>
       <c r="G102" s="3">
+        <v>305200</v>
+      </c>
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179700</v>
+        <v>197200</v>
       </c>
       <c r="E8" s="3">
-        <v>159200</v>
+        <v>183900</v>
       </c>
       <c r="F8" s="3">
-        <v>151600</v>
+        <v>162900</v>
       </c>
       <c r="G8" s="3">
-        <v>136900</v>
+        <v>155200</v>
       </c>
       <c r="H8" s="3">
-        <v>133400</v>
+        <v>140100</v>
       </c>
       <c r="I8" s="3">
-        <v>129300</v>
+        <v>136600</v>
       </c>
       <c r="J8" s="3">
+        <v>132400</v>
+      </c>
+      <c r="K8" s="3">
         <v>126500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>121600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51000</v>
+        <v>59400</v>
       </c>
       <c r="E9" s="3">
-        <v>48800</v>
+        <v>52200</v>
       </c>
       <c r="F9" s="3">
-        <v>44800</v>
+        <v>49900</v>
       </c>
       <c r="G9" s="3">
-        <v>41200</v>
+        <v>45900</v>
       </c>
       <c r="H9" s="3">
-        <v>46600</v>
+        <v>42100</v>
       </c>
       <c r="I9" s="3">
-        <v>45900</v>
+        <v>47700</v>
       </c>
       <c r="J9" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K9" s="3">
         <v>44900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46000</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>128700</v>
+        <v>137900</v>
       </c>
       <c r="E10" s="3">
-        <v>110400</v>
+        <v>131700</v>
       </c>
       <c r="F10" s="3">
-        <v>106800</v>
+        <v>113000</v>
       </c>
       <c r="G10" s="3">
-        <v>95700</v>
+        <v>109300</v>
       </c>
       <c r="H10" s="3">
-        <v>86800</v>
+        <v>98000</v>
       </c>
       <c r="I10" s="3">
-        <v>83500</v>
+        <v>88900</v>
       </c>
       <c r="J10" s="3">
+        <v>85400</v>
+      </c>
+      <c r="K10" s="3">
         <v>81700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75600</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,57 +907,63 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>6900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E15" s="3">
         <v>3700</v>
       </c>
-      <c r="E15" s="3">
-        <v>4900</v>
-      </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="G15" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="H15" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
@@ -949,13 +972,16 @@
         <v>3500</v>
       </c>
       <c r="K15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-51000</v>
+        <v>-79100</v>
       </c>
       <c r="E17" s="3">
-        <v>-183600</v>
+        <v>-52200</v>
       </c>
       <c r="F17" s="3">
-        <v>-94800</v>
+        <v>-188000</v>
       </c>
       <c r="G17" s="3">
-        <v>54600</v>
+        <v>-97100</v>
       </c>
       <c r="H17" s="3">
-        <v>4900</v>
+        <v>55900</v>
       </c>
       <c r="I17" s="3">
-        <v>41500</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="K17" s="3">
         <v>78100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>230700</v>
+        <v>276300</v>
       </c>
       <c r="E18" s="3">
-        <v>342800</v>
+        <v>236200</v>
       </c>
       <c r="F18" s="3">
-        <v>246500</v>
+        <v>350900</v>
       </c>
       <c r="G18" s="3">
-        <v>82300</v>
+        <v>252300</v>
       </c>
       <c r="H18" s="3">
-        <v>128500</v>
+        <v>84200</v>
       </c>
       <c r="I18" s="3">
-        <v>87800</v>
+        <v>131600</v>
       </c>
       <c r="J18" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K18" s="3">
         <v>48400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-73100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,19 +1076,20 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1067,48 +1101,54 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>234400</v>
+        <v>280700</v>
       </c>
       <c r="E21" s="3">
-        <v>347700</v>
+        <v>239900</v>
       </c>
       <c r="F21" s="3">
-        <v>250100</v>
+        <v>355900</v>
       </c>
       <c r="G21" s="3">
-        <v>85600</v>
+        <v>256000</v>
       </c>
       <c r="H21" s="3">
-        <v>131900</v>
+        <v>87700</v>
       </c>
       <c r="I21" s="3">
-        <v>91300</v>
+        <v>135000</v>
       </c>
       <c r="J21" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K21" s="3">
         <v>52000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-69600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,75 +1176,84 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>230800</v>
+        <v>276300</v>
       </c>
       <c r="E23" s="3">
-        <v>342800</v>
+        <v>236200</v>
       </c>
       <c r="F23" s="3">
-        <v>246500</v>
+        <v>350900</v>
       </c>
       <c r="G23" s="3">
-        <v>82300</v>
+        <v>252300</v>
       </c>
       <c r="H23" s="3">
-        <v>128600</v>
+        <v>84200</v>
       </c>
       <c r="I23" s="3">
-        <v>87900</v>
+        <v>131600</v>
       </c>
       <c r="J23" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K23" s="3">
         <v>48400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-73200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69000</v>
+        <v>63100</v>
       </c>
       <c r="E24" s="3">
-        <v>85600</v>
+        <v>70600</v>
       </c>
       <c r="F24" s="3">
-        <v>60000</v>
+        <v>87600</v>
       </c>
       <c r="G24" s="3">
-        <v>28900</v>
+        <v>61500</v>
       </c>
       <c r="H24" s="3">
-        <v>32000</v>
+        <v>29500</v>
       </c>
       <c r="I24" s="3">
-        <v>20100</v>
+        <v>32700</v>
       </c>
       <c r="J24" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-13900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161800</v>
+        <v>213200</v>
       </c>
       <c r="E26" s="3">
-        <v>257300</v>
+        <v>165600</v>
       </c>
       <c r="F26" s="3">
-        <v>186500</v>
+        <v>263300</v>
       </c>
       <c r="G26" s="3">
-        <v>53400</v>
+        <v>190900</v>
       </c>
       <c r="H26" s="3">
-        <v>96600</v>
+        <v>54700</v>
       </c>
       <c r="I26" s="3">
-        <v>67800</v>
+        <v>98900</v>
       </c>
       <c r="J26" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K26" s="3">
         <v>38400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-59300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159400</v>
+        <v>211800</v>
       </c>
       <c r="E27" s="3">
-        <v>255900</v>
+        <v>163200</v>
       </c>
       <c r="F27" s="3">
-        <v>185400</v>
+        <v>262000</v>
       </c>
       <c r="G27" s="3">
-        <v>52700</v>
+        <v>189800</v>
       </c>
       <c r="H27" s="3">
-        <v>94300</v>
+        <v>53900</v>
       </c>
       <c r="I27" s="3">
-        <v>67200</v>
+        <v>96500</v>
       </c>
       <c r="J27" s="3">
+        <v>68800</v>
+      </c>
+      <c r="K27" s="3">
         <v>38100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-59900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,25 +1407,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-86100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>7200</v>
+        <v>-88100</v>
       </c>
       <c r="I29" s="3">
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="J29" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K29" s="3">
         <v>-16300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,19 +1494,22 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1451,48 +1521,54 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159400</v>
+        <v>211800</v>
       </c>
       <c r="E33" s="3">
-        <v>255900</v>
+        <v>163200</v>
       </c>
       <c r="F33" s="3">
-        <v>185400</v>
+        <v>262000</v>
       </c>
       <c r="G33" s="3">
-        <v>-33400</v>
+        <v>189800</v>
       </c>
       <c r="H33" s="3">
-        <v>101500</v>
+        <v>-34200</v>
       </c>
       <c r="I33" s="3">
-        <v>73400</v>
+        <v>103900</v>
       </c>
       <c r="J33" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K33" s="3">
         <v>21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159400</v>
+        <v>211800</v>
       </c>
       <c r="E35" s="3">
-        <v>255900</v>
+        <v>163200</v>
       </c>
       <c r="F35" s="3">
-        <v>185400</v>
+        <v>262000</v>
       </c>
       <c r="G35" s="3">
-        <v>-33400</v>
+        <v>189800</v>
       </c>
       <c r="H35" s="3">
-        <v>101500</v>
+        <v>-34200</v>
       </c>
       <c r="I35" s="3">
-        <v>73400</v>
+        <v>103900</v>
       </c>
       <c r="J35" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K35" s="3">
         <v>21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225400</v>
+        <v>186800</v>
       </c>
       <c r="E41" s="3">
-        <v>192200</v>
+        <v>230700</v>
       </c>
       <c r="F41" s="3">
-        <v>108000</v>
+        <v>196700</v>
       </c>
       <c r="G41" s="3">
-        <v>375500</v>
+        <v>110600</v>
       </c>
       <c r="H41" s="3">
-        <v>70300</v>
+        <v>384400</v>
       </c>
       <c r="I41" s="3">
-        <v>67500</v>
+        <v>71900</v>
       </c>
       <c r="J41" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K41" s="3">
         <v>42600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>53000</v>
+        <v>55700</v>
       </c>
       <c r="E43" s="3">
-        <v>25800</v>
+        <v>54200</v>
       </c>
       <c r="F43" s="3">
-        <v>37900</v>
+        <v>26400</v>
       </c>
       <c r="G43" s="3">
-        <v>52000</v>
+        <v>38800</v>
       </c>
       <c r="H43" s="3">
-        <v>32600</v>
+        <v>53200</v>
       </c>
       <c r="I43" s="3">
-        <v>27500</v>
+        <v>33400</v>
       </c>
       <c r="J43" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K43" s="3">
         <v>22600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,168 +1844,186 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42000</v>
+        <v>57200</v>
       </c>
       <c r="E45" s="3">
-        <v>38300</v>
+        <v>43000</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>39200</v>
       </c>
       <c r="G45" s="3">
-        <v>22600</v>
+        <v>19600</v>
       </c>
       <c r="H45" s="3">
-        <v>17400</v>
+        <v>23100</v>
       </c>
       <c r="I45" s="3">
-        <v>14100</v>
+        <v>17800</v>
       </c>
       <c r="J45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K45" s="3">
         <v>16300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>320400</v>
+        <v>299700</v>
       </c>
       <c r="E46" s="3">
-        <v>256300</v>
+        <v>328000</v>
       </c>
       <c r="F46" s="3">
-        <v>165100</v>
+        <v>262400</v>
       </c>
       <c r="G46" s="3">
-        <v>450100</v>
+        <v>169000</v>
       </c>
       <c r="H46" s="3">
-        <v>120300</v>
+        <v>460800</v>
       </c>
       <c r="I46" s="3">
-        <v>109100</v>
+        <v>123100</v>
       </c>
       <c r="J46" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K46" s="3">
         <v>81500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10898800</v>
+        <v>12473900</v>
       </c>
       <c r="E47" s="3">
-        <v>9633400</v>
+        <v>11156200</v>
       </c>
       <c r="F47" s="3">
-        <v>8262400</v>
+        <v>9861000</v>
       </c>
       <c r="G47" s="3">
-        <v>7357900</v>
+        <v>8457600</v>
       </c>
       <c r="H47" s="3">
-        <v>8527200</v>
+        <v>7531700</v>
       </c>
       <c r="I47" s="3">
-        <v>8114000</v>
+        <v>8728600</v>
       </c>
       <c r="J47" s="3">
+        <v>8305700</v>
+      </c>
+      <c r="K47" s="3">
         <v>7913000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7771300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>108000</v>
+        <v>117000</v>
       </c>
       <c r="E48" s="3">
-        <v>103700</v>
+        <v>110500</v>
       </c>
       <c r="F48" s="3">
-        <v>104600</v>
+        <v>106100</v>
       </c>
       <c r="G48" s="3">
-        <v>65200</v>
+        <v>107100</v>
       </c>
       <c r="H48" s="3">
-        <v>61200</v>
+        <v>66700</v>
       </c>
       <c r="I48" s="3">
-        <v>58500</v>
+        <v>62600</v>
       </c>
       <c r="J48" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K48" s="3">
         <v>56800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>49800</v>
+        <v>50200</v>
       </c>
       <c r="E49" s="3">
-        <v>49700</v>
+        <v>50900</v>
       </c>
       <c r="F49" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="G49" s="3">
-        <v>52400</v>
+        <v>52700</v>
       </c>
       <c r="H49" s="3">
-        <v>154400</v>
+        <v>53600</v>
       </c>
       <c r="I49" s="3">
-        <v>155700</v>
+        <v>158100</v>
       </c>
       <c r="J49" s="3">
+        <v>159400</v>
+      </c>
+      <c r="K49" s="3">
         <v>157000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>158200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>281200</v>
+        <v>321200</v>
       </c>
       <c r="E52" s="3">
-        <v>275400</v>
+        <v>287800</v>
       </c>
       <c r="F52" s="3">
-        <v>231600</v>
+        <v>282000</v>
       </c>
       <c r="G52" s="3">
-        <v>200000</v>
+        <v>237100</v>
       </c>
       <c r="H52" s="3">
-        <v>279800</v>
+        <v>204700</v>
       </c>
       <c r="I52" s="3">
-        <v>270900</v>
+        <v>286400</v>
       </c>
       <c r="J52" s="3">
+        <v>277300</v>
+      </c>
+      <c r="K52" s="3">
         <v>249700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>236300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11658100</v>
+        <v>13261900</v>
       </c>
       <c r="E54" s="3">
-        <v>10318500</v>
+        <v>11933500</v>
       </c>
       <c r="F54" s="3">
-        <v>8815200</v>
+        <v>10562200</v>
       </c>
       <c r="G54" s="3">
-        <v>8125700</v>
+        <v>9023400</v>
       </c>
       <c r="H54" s="3">
-        <v>9142900</v>
+        <v>8317600</v>
       </c>
       <c r="I54" s="3">
-        <v>8708200</v>
+        <v>9358900</v>
       </c>
       <c r="J54" s="3">
+        <v>8913900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8458000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8331700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>55400</v>
+        <v>61200</v>
       </c>
       <c r="E57" s="3">
-        <v>58800</v>
+        <v>56700</v>
       </c>
       <c r="F57" s="3">
-        <v>41800</v>
+        <v>60200</v>
       </c>
       <c r="G57" s="3">
-        <v>37700</v>
+        <v>42700</v>
       </c>
       <c r="H57" s="3">
-        <v>39700</v>
+        <v>38600</v>
       </c>
       <c r="I57" s="3">
-        <v>34100</v>
+        <v>40700</v>
       </c>
       <c r="J57" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K57" s="3">
         <v>85500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>74200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>327000</v>
+        <v>337200</v>
       </c>
       <c r="E58" s="3">
-        <v>625400</v>
+        <v>334800</v>
       </c>
       <c r="F58" s="3">
-        <v>248300</v>
+        <v>640200</v>
       </c>
       <c r="G58" s="3">
-        <v>184200</v>
+        <v>254100</v>
       </c>
       <c r="H58" s="3">
-        <v>351700</v>
+        <v>188500</v>
       </c>
       <c r="I58" s="3">
-        <v>173300</v>
+        <v>360000</v>
       </c>
       <c r="J58" s="3">
+        <v>177400</v>
+      </c>
+      <c r="K58" s="3">
         <v>168600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>179000</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166000</v>
+        <v>174800</v>
       </c>
       <c r="E59" s="3">
-        <v>182400</v>
+        <v>169900</v>
       </c>
       <c r="F59" s="3">
-        <v>176000</v>
+        <v>186700</v>
       </c>
       <c r="G59" s="3">
-        <v>130900</v>
+        <v>180200</v>
       </c>
       <c r="H59" s="3">
-        <v>154300</v>
+        <v>133900</v>
       </c>
       <c r="I59" s="3">
-        <v>181200</v>
+        <v>158000</v>
       </c>
       <c r="J59" s="3">
+        <v>185500</v>
+      </c>
+      <c r="K59" s="3">
         <v>98200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>81500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>548400</v>
+        <v>573200</v>
       </c>
       <c r="E60" s="3">
-        <v>866700</v>
+        <v>561400</v>
       </c>
       <c r="F60" s="3">
-        <v>466100</v>
+        <v>887100</v>
       </c>
       <c r="G60" s="3">
-        <v>352800</v>
+        <v>477100</v>
       </c>
       <c r="H60" s="3">
-        <v>545800</v>
+        <v>361100</v>
       </c>
       <c r="I60" s="3">
-        <v>388700</v>
+        <v>558600</v>
       </c>
       <c r="J60" s="3">
+        <v>397800</v>
+      </c>
+      <c r="K60" s="3">
         <v>352400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>334700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5030900</v>
+        <v>5767600</v>
       </c>
       <c r="E61" s="3">
-        <v>4591400</v>
+        <v>5149700</v>
       </c>
       <c r="F61" s="3">
-        <v>4497200</v>
+        <v>4699900</v>
       </c>
       <c r="G61" s="3">
-        <v>4601500</v>
+        <v>4603400</v>
       </c>
       <c r="H61" s="3">
-        <v>5461000</v>
+        <v>4710200</v>
       </c>
       <c r="I61" s="3">
-        <v>5409100</v>
+        <v>5590000</v>
       </c>
       <c r="J61" s="3">
+        <v>5536900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5293000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5225000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2178100</v>
+        <v>2720800</v>
       </c>
       <c r="E62" s="3">
-        <v>1802300</v>
+        <v>2229500</v>
       </c>
       <c r="F62" s="3">
-        <v>1291600</v>
+        <v>1844800</v>
       </c>
       <c r="G62" s="3">
-        <v>994000</v>
+        <v>1322100</v>
       </c>
       <c r="H62" s="3">
-        <v>914700</v>
+        <v>1017500</v>
       </c>
       <c r="I62" s="3">
-        <v>786500</v>
+        <v>936300</v>
       </c>
       <c r="J62" s="3">
+        <v>805100</v>
+      </c>
+      <c r="K62" s="3">
         <v>755900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>731900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7766600</v>
+        <v>9069600</v>
       </c>
       <c r="E66" s="3">
-        <v>7267300</v>
+        <v>7950100</v>
       </c>
       <c r="F66" s="3">
-        <v>6262400</v>
+        <v>7438900</v>
       </c>
       <c r="G66" s="3">
-        <v>5956600</v>
+        <v>6410400</v>
       </c>
       <c r="H66" s="3">
-        <v>6931900</v>
+        <v>6097300</v>
       </c>
       <c r="I66" s="3">
-        <v>6594900</v>
+        <v>7095600</v>
       </c>
       <c r="J66" s="3">
+        <v>6750600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6411200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6301200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1138400</v>
+        <v>1356400</v>
       </c>
       <c r="E72" s="3">
-        <v>999200</v>
+        <v>1165300</v>
       </c>
       <c r="F72" s="3">
-        <v>759000</v>
+        <v>1022800</v>
       </c>
       <c r="G72" s="3">
-        <v>588700</v>
+        <v>777000</v>
       </c>
       <c r="H72" s="3">
-        <v>635900</v>
+        <v>602600</v>
       </c>
       <c r="I72" s="3">
-        <v>547900</v>
+        <v>650900</v>
       </c>
       <c r="J72" s="3">
+        <v>560800</v>
+      </c>
+      <c r="K72" s="3">
         <v>487400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>478100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3891400</v>
+        <v>4192400</v>
       </c>
       <c r="E76" s="3">
-        <v>3051300</v>
+        <v>3983400</v>
       </c>
       <c r="F76" s="3">
-        <v>2552700</v>
+        <v>3123300</v>
       </c>
       <c r="G76" s="3">
-        <v>2169000</v>
+        <v>2613000</v>
       </c>
       <c r="H76" s="3">
-        <v>2211000</v>
+        <v>2220200</v>
       </c>
       <c r="I76" s="3">
-        <v>2113400</v>
+        <v>2263300</v>
       </c>
       <c r="J76" s="3">
+        <v>2163300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2046800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2030500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159400</v>
+        <v>211800</v>
       </c>
       <c r="E81" s="3">
-        <v>255900</v>
+        <v>163200</v>
       </c>
       <c r="F81" s="3">
-        <v>185400</v>
+        <v>262000</v>
       </c>
       <c r="G81" s="3">
-        <v>-33400</v>
+        <v>189800</v>
       </c>
       <c r="H81" s="3">
-        <v>101500</v>
+        <v>-34200</v>
       </c>
       <c r="I81" s="3">
-        <v>73400</v>
+        <v>103900</v>
       </c>
       <c r="J81" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K81" s="3">
         <v>21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,25 +3031,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>4900</v>
+        <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="H83" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
         <v>3400</v>
@@ -2863,10 +3062,13 @@
         <v>3500</v>
       </c>
       <c r="L83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
-        <v>75200</v>
-      </c>
       <c r="F89" s="3">
-        <v>53400</v>
+        <v>77000</v>
       </c>
       <c r="G89" s="3">
-        <v>15600</v>
+        <v>54600</v>
       </c>
       <c r="H89" s="3">
-        <v>21100</v>
+        <v>15900</v>
       </c>
       <c r="I89" s="3">
-        <v>54800</v>
+        <v>21600</v>
       </c>
       <c r="J89" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K89" s="3">
         <v>61800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9700</v>
+        <v>-11400</v>
       </c>
       <c r="E91" s="3">
-        <v>-9300</v>
+        <v>-9900</v>
       </c>
       <c r="F91" s="3">
-        <v>-17400</v>
+        <v>-9500</v>
       </c>
       <c r="G91" s="3">
-        <v>-5500</v>
+        <v>-17800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3500</v>
+        <v>-5600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3300</v>
+        <v>-3600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-878500</v>
+        <v>-910700</v>
       </c>
       <c r="E94" s="3">
-        <v>-894000</v>
+        <v>-899200</v>
       </c>
       <c r="F94" s="3">
-        <v>-544700</v>
+        <v>-915200</v>
       </c>
       <c r="G94" s="3">
-        <v>267600</v>
+        <v>-557600</v>
       </c>
       <c r="H94" s="3">
-        <v>-259400</v>
+        <v>274000</v>
       </c>
       <c r="I94" s="3">
-        <v>-121400</v>
+        <v>-265500</v>
       </c>
       <c r="J94" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-50200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3446,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47500</v>
+        <v>-15800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-48600</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-11000</v>
+        <v>-2600</v>
       </c>
       <c r="I96" s="3">
-        <v>-32900</v>
+        <v>-11300</v>
       </c>
       <c r="J96" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>910900</v>
+        <v>816200</v>
       </c>
       <c r="E100" s="3">
-        <v>903000</v>
+        <v>932400</v>
       </c>
       <c r="F100" s="3">
-        <v>223800</v>
+        <v>924400</v>
       </c>
       <c r="G100" s="3">
-        <v>22000</v>
+        <v>229100</v>
       </c>
       <c r="H100" s="3">
-        <v>241000</v>
+        <v>22500</v>
       </c>
       <c r="I100" s="3">
-        <v>90100</v>
+        <v>246700</v>
       </c>
       <c r="J100" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-36700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>142300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33200</v>
+        <v>-44000</v>
       </c>
       <c r="E102" s="3">
-        <v>84100</v>
+        <v>34000</v>
       </c>
       <c r="F102" s="3">
-        <v>-267500</v>
+        <v>86100</v>
       </c>
       <c r="G102" s="3">
-        <v>305200</v>
+        <v>-273800</v>
       </c>
       <c r="H102" s="3">
-        <v>2800</v>
+        <v>312400</v>
       </c>
       <c r="I102" s="3">
-        <v>24900</v>
+        <v>2900</v>
       </c>
       <c r="J102" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>197200</v>
+        <v>226800</v>
       </c>
       <c r="E8" s="3">
-        <v>183900</v>
+        <v>195400</v>
       </c>
       <c r="F8" s="3">
-        <v>162900</v>
+        <v>182200</v>
       </c>
       <c r="G8" s="3">
-        <v>155200</v>
+        <v>161400</v>
       </c>
       <c r="H8" s="3">
-        <v>140100</v>
+        <v>153800</v>
       </c>
       <c r="I8" s="3">
-        <v>136600</v>
+        <v>138800</v>
       </c>
       <c r="J8" s="3">
+        <v>135300</v>
+      </c>
+      <c r="K8" s="3">
         <v>132400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>121600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>59400</v>
+        <v>65600</v>
       </c>
       <c r="E9" s="3">
-        <v>52200</v>
+        <v>58800</v>
       </c>
       <c r="F9" s="3">
-        <v>49900</v>
+        <v>51700</v>
       </c>
       <c r="G9" s="3">
-        <v>45900</v>
+        <v>49500</v>
       </c>
       <c r="H9" s="3">
-        <v>42100</v>
+        <v>45500</v>
       </c>
       <c r="I9" s="3">
-        <v>47700</v>
+        <v>41700</v>
       </c>
       <c r="J9" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K9" s="3">
         <v>47000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>46000</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>137900</v>
+        <v>161200</v>
       </c>
       <c r="E10" s="3">
-        <v>131700</v>
+        <v>136600</v>
       </c>
       <c r="F10" s="3">
-        <v>113000</v>
+        <v>130500</v>
       </c>
       <c r="G10" s="3">
-        <v>109300</v>
+        <v>112000</v>
       </c>
       <c r="H10" s="3">
-        <v>98000</v>
+        <v>108300</v>
       </c>
       <c r="I10" s="3">
-        <v>88900</v>
+        <v>97100</v>
       </c>
       <c r="J10" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K10" s="3">
         <v>85400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75600</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>6900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="3">
         <v>4400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3700</v>
       </c>
-      <c r="F15" s="3">
-        <v>5000</v>
-      </c>
       <c r="G15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H15" s="3">
         <v>3700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3500</v>
       </c>
       <c r="I15" s="3">
         <v>3400</v>
       </c>
       <c r="J15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K15" s="3">
         <v>3500</v>
       </c>
       <c r="L15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M15" s="3">
         <v>4300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-79100</v>
+        <v>-395500</v>
       </c>
       <c r="E17" s="3">
-        <v>-52200</v>
+        <v>-78300</v>
       </c>
       <c r="F17" s="3">
-        <v>-188000</v>
+        <v>-51800</v>
       </c>
       <c r="G17" s="3">
-        <v>-97100</v>
+        <v>-186200</v>
       </c>
       <c r="H17" s="3">
-        <v>55900</v>
+        <v>-96200</v>
       </c>
       <c r="I17" s="3">
-        <v>5000</v>
+        <v>55400</v>
       </c>
       <c r="J17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K17" s="3">
         <v>42500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>194800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276300</v>
+        <v>622400</v>
       </c>
       <c r="E18" s="3">
-        <v>236200</v>
+        <v>273700</v>
       </c>
       <c r="F18" s="3">
-        <v>350900</v>
+        <v>234000</v>
       </c>
       <c r="G18" s="3">
-        <v>252300</v>
+        <v>347700</v>
       </c>
       <c r="H18" s="3">
-        <v>84200</v>
+        <v>250000</v>
       </c>
       <c r="I18" s="3">
-        <v>131600</v>
+        <v>83400</v>
       </c>
       <c r="J18" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K18" s="3">
         <v>89900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-73100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,69 +1120,75 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>280700</v>
+        <v>627000</v>
       </c>
       <c r="E21" s="3">
-        <v>239900</v>
+        <v>278100</v>
       </c>
       <c r="F21" s="3">
-        <v>355900</v>
+        <v>237700</v>
       </c>
       <c r="G21" s="3">
-        <v>256000</v>
+        <v>352600</v>
       </c>
       <c r="H21" s="3">
-        <v>87700</v>
+        <v>253700</v>
       </c>
       <c r="I21" s="3">
-        <v>135000</v>
+        <v>86900</v>
       </c>
       <c r="J21" s="3">
+        <v>133800</v>
+      </c>
+      <c r="K21" s="3">
         <v>93400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-69600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,81 +1219,90 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>276300</v>
+        <v>622400</v>
       </c>
       <c r="E23" s="3">
-        <v>236200</v>
+        <v>273700</v>
       </c>
       <c r="F23" s="3">
-        <v>350900</v>
+        <v>234100</v>
       </c>
       <c r="G23" s="3">
-        <v>252300</v>
+        <v>347700</v>
       </c>
       <c r="H23" s="3">
-        <v>84200</v>
+        <v>250000</v>
       </c>
       <c r="I23" s="3">
-        <v>131600</v>
+        <v>83400</v>
       </c>
       <c r="J23" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K23" s="3">
         <v>89900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>48400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-73200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63100</v>
+        <v>83600</v>
       </c>
       <c r="E24" s="3">
-        <v>70600</v>
+        <v>62500</v>
       </c>
       <c r="F24" s="3">
-        <v>87600</v>
+        <v>69900</v>
       </c>
       <c r="G24" s="3">
-        <v>61500</v>
+        <v>86800</v>
       </c>
       <c r="H24" s="3">
-        <v>29500</v>
+        <v>60900</v>
       </c>
       <c r="I24" s="3">
-        <v>32700</v>
+        <v>29300</v>
       </c>
       <c r="J24" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K24" s="3">
         <v>20500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-13900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>213200</v>
+        <v>538700</v>
       </c>
       <c r="E26" s="3">
-        <v>165600</v>
+        <v>211300</v>
       </c>
       <c r="F26" s="3">
-        <v>263300</v>
+        <v>164100</v>
       </c>
       <c r="G26" s="3">
-        <v>190900</v>
+        <v>260900</v>
       </c>
       <c r="H26" s="3">
-        <v>54700</v>
+        <v>189100</v>
       </c>
       <c r="I26" s="3">
-        <v>98900</v>
+        <v>54200</v>
       </c>
       <c r="J26" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K26" s="3">
         <v>69400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-59300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211800</v>
+        <v>537400</v>
       </c>
       <c r="E27" s="3">
-        <v>163200</v>
+        <v>209800</v>
       </c>
       <c r="F27" s="3">
-        <v>262000</v>
+        <v>161700</v>
       </c>
       <c r="G27" s="3">
-        <v>189800</v>
+        <v>259600</v>
       </c>
       <c r="H27" s="3">
-        <v>53900</v>
+        <v>188100</v>
       </c>
       <c r="I27" s="3">
-        <v>96500</v>
+        <v>53400</v>
       </c>
       <c r="J27" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K27" s="3">
         <v>68800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-59900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1410,25 +1471,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-88100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>7400</v>
+        <v>-87300</v>
       </c>
       <c r="J29" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K29" s="3">
         <v>6400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-16300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,69 +1576,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211800</v>
+        <v>537400</v>
       </c>
       <c r="E33" s="3">
-        <v>163200</v>
+        <v>209800</v>
       </c>
       <c r="F33" s="3">
-        <v>262000</v>
+        <v>161700</v>
       </c>
       <c r="G33" s="3">
-        <v>189800</v>
+        <v>259600</v>
       </c>
       <c r="H33" s="3">
-        <v>-34200</v>
+        <v>188100</v>
       </c>
       <c r="I33" s="3">
-        <v>103900</v>
+        <v>-33900</v>
       </c>
       <c r="J33" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K33" s="3">
         <v>75100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211800</v>
+        <v>537400</v>
       </c>
       <c r="E35" s="3">
-        <v>163200</v>
+        <v>209800</v>
       </c>
       <c r="F35" s="3">
-        <v>262000</v>
+        <v>161700</v>
       </c>
       <c r="G35" s="3">
-        <v>189800</v>
+        <v>259600</v>
       </c>
       <c r="H35" s="3">
-        <v>-34200</v>
+        <v>188100</v>
       </c>
       <c r="I35" s="3">
-        <v>103900</v>
+        <v>-33900</v>
       </c>
       <c r="J35" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K35" s="3">
         <v>75100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>186800</v>
+        <v>189300</v>
       </c>
       <c r="E41" s="3">
-        <v>230700</v>
+        <v>185100</v>
       </c>
       <c r="F41" s="3">
-        <v>196700</v>
+        <v>228600</v>
       </c>
       <c r="G41" s="3">
-        <v>110600</v>
+        <v>194900</v>
       </c>
       <c r="H41" s="3">
-        <v>384400</v>
+        <v>109600</v>
       </c>
       <c r="I41" s="3">
-        <v>71900</v>
+        <v>380900</v>
       </c>
       <c r="J41" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K41" s="3">
         <v>69100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>55700</v>
+        <v>22700</v>
       </c>
       <c r="E43" s="3">
-        <v>54200</v>
+        <v>55200</v>
       </c>
       <c r="F43" s="3">
-        <v>26400</v>
+        <v>53700</v>
       </c>
       <c r="G43" s="3">
-        <v>38800</v>
+        <v>26200</v>
       </c>
       <c r="H43" s="3">
-        <v>53200</v>
+        <v>38400</v>
       </c>
       <c r="I43" s="3">
-        <v>33400</v>
+        <v>52700</v>
       </c>
       <c r="J43" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K43" s="3">
         <v>28200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,183 +1943,201 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57200</v>
+        <v>70200</v>
       </c>
       <c r="E45" s="3">
-        <v>43000</v>
+        <v>56700</v>
       </c>
       <c r="F45" s="3">
-        <v>39200</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>19600</v>
+        <v>38900</v>
       </c>
       <c r="H45" s="3">
-        <v>23100</v>
+        <v>19400</v>
       </c>
       <c r="I45" s="3">
-        <v>17800</v>
+        <v>22900</v>
       </c>
       <c r="J45" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K45" s="3">
         <v>14400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>299700</v>
+        <v>282200</v>
       </c>
       <c r="E46" s="3">
-        <v>328000</v>
+        <v>296900</v>
       </c>
       <c r="F46" s="3">
-        <v>262400</v>
+        <v>324900</v>
       </c>
       <c r="G46" s="3">
-        <v>169000</v>
+        <v>260000</v>
       </c>
       <c r="H46" s="3">
-        <v>460800</v>
+        <v>167400</v>
       </c>
       <c r="I46" s="3">
-        <v>123100</v>
+        <v>456500</v>
       </c>
       <c r="J46" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K46" s="3">
         <v>111700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>81500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>109900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12473900</v>
+        <v>14035900</v>
       </c>
       <c r="E47" s="3">
-        <v>11156200</v>
+        <v>12359200</v>
       </c>
       <c r="F47" s="3">
-        <v>9861000</v>
+        <v>11053600</v>
       </c>
       <c r="G47" s="3">
-        <v>8457600</v>
+        <v>9770200</v>
       </c>
       <c r="H47" s="3">
-        <v>7531700</v>
+        <v>8379700</v>
       </c>
       <c r="I47" s="3">
-        <v>8728600</v>
+        <v>7462400</v>
       </c>
       <c r="J47" s="3">
+        <v>8648300</v>
+      </c>
+      <c r="K47" s="3">
         <v>8305700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7913000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7771300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>117000</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>110500</v>
+        <v>115900</v>
       </c>
       <c r="F48" s="3">
+        <v>109500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>105100</v>
+      </c>
+      <c r="H48" s="3">
         <v>106100</v>
       </c>
-      <c r="G48" s="3">
-        <v>107100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>66700</v>
-      </c>
       <c r="I48" s="3">
-        <v>62600</v>
+        <v>66100</v>
       </c>
       <c r="J48" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K48" s="3">
         <v>59900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>56800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50200</v>
+        <v>49000</v>
       </c>
       <c r="E49" s="3">
-        <v>50900</v>
+        <v>49700</v>
       </c>
       <c r="F49" s="3">
-        <v>50900</v>
+        <v>50500</v>
       </c>
       <c r="G49" s="3">
-        <v>52700</v>
+        <v>50400</v>
       </c>
       <c r="H49" s="3">
-        <v>53600</v>
+        <v>52200</v>
       </c>
       <c r="I49" s="3">
-        <v>158100</v>
+        <v>53100</v>
       </c>
       <c r="J49" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K49" s="3">
         <v>159400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>157000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>158200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>321200</v>
+        <v>479100</v>
       </c>
       <c r="E52" s="3">
-        <v>287800</v>
+        <v>318300</v>
       </c>
       <c r="F52" s="3">
-        <v>282000</v>
+        <v>285200</v>
       </c>
       <c r="G52" s="3">
-        <v>237100</v>
+        <v>279400</v>
       </c>
       <c r="H52" s="3">
-        <v>204700</v>
+        <v>234900</v>
       </c>
       <c r="I52" s="3">
-        <v>286400</v>
+        <v>202900</v>
       </c>
       <c r="J52" s="3">
+        <v>283800</v>
+      </c>
+      <c r="K52" s="3">
         <v>277300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>249700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>236300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13261900</v>
+        <v>14846200</v>
       </c>
       <c r="E54" s="3">
-        <v>11933500</v>
+        <v>13139900</v>
       </c>
       <c r="F54" s="3">
-        <v>10562200</v>
+        <v>11823700</v>
       </c>
       <c r="G54" s="3">
-        <v>9023400</v>
+        <v>10465100</v>
       </c>
       <c r="H54" s="3">
-        <v>8317600</v>
+        <v>8940400</v>
       </c>
       <c r="I54" s="3">
-        <v>9358900</v>
+        <v>8241100</v>
       </c>
       <c r="J54" s="3">
+        <v>9272800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8913900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8458000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8331700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61200</v>
+        <v>168200</v>
       </c>
       <c r="E57" s="3">
-        <v>56700</v>
+        <v>60600</v>
       </c>
       <c r="F57" s="3">
-        <v>60200</v>
+        <v>56200</v>
       </c>
       <c r="G57" s="3">
-        <v>42700</v>
+        <v>59700</v>
       </c>
       <c r="H57" s="3">
-        <v>38600</v>
+        <v>42300</v>
       </c>
       <c r="I57" s="3">
-        <v>40700</v>
+        <v>38300</v>
       </c>
       <c r="J57" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K57" s="3">
         <v>34900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>85500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>74200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>337200</v>
+        <v>446300</v>
       </c>
       <c r="E58" s="3">
-        <v>334800</v>
+        <v>334100</v>
       </c>
       <c r="F58" s="3">
-        <v>640200</v>
+        <v>331700</v>
       </c>
       <c r="G58" s="3">
-        <v>254100</v>
+        <v>634300</v>
       </c>
       <c r="H58" s="3">
-        <v>188500</v>
+        <v>251800</v>
       </c>
       <c r="I58" s="3">
-        <v>360000</v>
+        <v>186800</v>
       </c>
       <c r="J58" s="3">
+        <v>356700</v>
+      </c>
+      <c r="K58" s="3">
         <v>177400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>168600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>179000</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>174800</v>
+        <v>104900</v>
       </c>
       <c r="E59" s="3">
-        <v>169900</v>
+        <v>173200</v>
       </c>
       <c r="F59" s="3">
-        <v>186700</v>
+        <v>168300</v>
       </c>
       <c r="G59" s="3">
-        <v>180200</v>
+        <v>185000</v>
       </c>
       <c r="H59" s="3">
-        <v>133900</v>
+        <v>178500</v>
       </c>
       <c r="I59" s="3">
-        <v>158000</v>
+        <v>132700</v>
       </c>
       <c r="J59" s="3">
+        <v>156500</v>
+      </c>
+      <c r="K59" s="3">
         <v>185500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>573200</v>
+        <v>719400</v>
       </c>
       <c r="E60" s="3">
-        <v>561400</v>
+        <v>567900</v>
       </c>
       <c r="F60" s="3">
-        <v>887100</v>
+        <v>556200</v>
       </c>
       <c r="G60" s="3">
-        <v>477100</v>
+        <v>879000</v>
       </c>
       <c r="H60" s="3">
-        <v>361100</v>
+        <v>472700</v>
       </c>
       <c r="I60" s="3">
-        <v>558600</v>
+        <v>357800</v>
       </c>
       <c r="J60" s="3">
+        <v>553500</v>
+      </c>
+      <c r="K60" s="3">
         <v>397800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>352400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>334700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5767600</v>
+        <v>6506400</v>
       </c>
       <c r="E61" s="3">
-        <v>5149700</v>
+        <v>5714500</v>
       </c>
       <c r="F61" s="3">
-        <v>4699900</v>
+        <v>5102300</v>
       </c>
       <c r="G61" s="3">
-        <v>4603400</v>
+        <v>4656600</v>
       </c>
       <c r="H61" s="3">
-        <v>4710200</v>
+        <v>4561100</v>
       </c>
       <c r="I61" s="3">
-        <v>5590000</v>
+        <v>4666900</v>
       </c>
       <c r="J61" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5536900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5293000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5225000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2720800</v>
+        <v>2949700</v>
       </c>
       <c r="E62" s="3">
-        <v>2229500</v>
+        <v>2695700</v>
       </c>
       <c r="F62" s="3">
-        <v>1844800</v>
+        <v>2209000</v>
       </c>
       <c r="G62" s="3">
-        <v>1322100</v>
+        <v>1827900</v>
       </c>
       <c r="H62" s="3">
-        <v>1017500</v>
+        <v>1309900</v>
       </c>
       <c r="I62" s="3">
-        <v>936300</v>
+        <v>1008100</v>
       </c>
       <c r="J62" s="3">
+        <v>927700</v>
+      </c>
+      <c r="K62" s="3">
         <v>805100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>755900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>731900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9069600</v>
+        <v>10182700</v>
       </c>
       <c r="E66" s="3">
-        <v>7950100</v>
+        <v>8986200</v>
       </c>
       <c r="F66" s="3">
-        <v>7438900</v>
+        <v>7876900</v>
       </c>
       <c r="G66" s="3">
-        <v>6410400</v>
+        <v>7370500</v>
       </c>
       <c r="H66" s="3">
-        <v>6097300</v>
+        <v>6351400</v>
       </c>
       <c r="I66" s="3">
-        <v>7095600</v>
+        <v>6041300</v>
       </c>
       <c r="J66" s="3">
+        <v>7030300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6750600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6411200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6301200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1356400</v>
+        <v>1860800</v>
       </c>
       <c r="E72" s="3">
-        <v>1165300</v>
+        <v>1343900</v>
       </c>
       <c r="F72" s="3">
-        <v>1022800</v>
+        <v>1154600</v>
       </c>
       <c r="G72" s="3">
-        <v>777000</v>
+        <v>1013300</v>
       </c>
       <c r="H72" s="3">
-        <v>602600</v>
+        <v>769800</v>
       </c>
       <c r="I72" s="3">
-        <v>650900</v>
+        <v>597100</v>
       </c>
       <c r="J72" s="3">
+        <v>644900</v>
+      </c>
+      <c r="K72" s="3">
         <v>560800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>487400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>478100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4192400</v>
+        <v>4663400</v>
       </c>
       <c r="E76" s="3">
-        <v>3983400</v>
+        <v>4153800</v>
       </c>
       <c r="F76" s="3">
-        <v>3123300</v>
+        <v>3946700</v>
       </c>
       <c r="G76" s="3">
-        <v>2613000</v>
+        <v>3094600</v>
       </c>
       <c r="H76" s="3">
-        <v>2220200</v>
+        <v>2589000</v>
       </c>
       <c r="I76" s="3">
-        <v>2263300</v>
+        <v>2199800</v>
       </c>
       <c r="J76" s="3">
+        <v>2242400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2163300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2046800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2030500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211800</v>
+        <v>537400</v>
       </c>
       <c r="E81" s="3">
-        <v>163200</v>
+        <v>209800</v>
       </c>
       <c r="F81" s="3">
-        <v>262000</v>
+        <v>161700</v>
       </c>
       <c r="G81" s="3">
-        <v>189800</v>
+        <v>259600</v>
       </c>
       <c r="H81" s="3">
-        <v>-34200</v>
+        <v>188100</v>
       </c>
       <c r="I81" s="3">
-        <v>103900</v>
+        <v>-33900</v>
       </c>
       <c r="J81" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K81" s="3">
         <v>75100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,31 +3230,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H83" s="3">
         <v>3700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3500</v>
       </c>
       <c r="I83" s="3">
         <v>3400</v>
       </c>
       <c r="J83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K83" s="3">
         <v>3500</v>
@@ -3065,10 +3264,13 @@
         <v>3500</v>
       </c>
       <c r="M83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50400</v>
+        <v>132300</v>
       </c>
       <c r="E89" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
-        <v>77000</v>
-      </c>
       <c r="G89" s="3">
-        <v>54600</v>
+        <v>76300</v>
       </c>
       <c r="H89" s="3">
-        <v>15900</v>
+        <v>54100</v>
       </c>
       <c r="I89" s="3">
-        <v>21600</v>
+        <v>15800</v>
       </c>
       <c r="J89" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K89" s="3">
         <v>56100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-13600</v>
       </c>
       <c r="E91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-9900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H91" s="3">
-        <v>-5600</v>
+        <v>-17600</v>
       </c>
       <c r="I91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-910700</v>
+        <v>-1177100</v>
       </c>
       <c r="E94" s="3">
-        <v>-899200</v>
+        <v>-902300</v>
       </c>
       <c r="F94" s="3">
-        <v>-915200</v>
+        <v>-890900</v>
       </c>
       <c r="G94" s="3">
-        <v>-557600</v>
+        <v>-906700</v>
       </c>
       <c r="H94" s="3">
-        <v>274000</v>
+        <v>-552400</v>
       </c>
       <c r="I94" s="3">
-        <v>-265500</v>
+        <v>271400</v>
       </c>
       <c r="J94" s="3">
+        <v>-263100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-129100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-15800</v>
+        <v>-21000</v>
       </c>
       <c r="E96" s="3">
-        <v>-48600</v>
+        <v>-15600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-48200</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-11300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-33700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>816200</v>
+        <v>1049200</v>
       </c>
       <c r="E100" s="3">
-        <v>932400</v>
+        <v>808700</v>
       </c>
       <c r="F100" s="3">
-        <v>924400</v>
+        <v>923800</v>
       </c>
       <c r="G100" s="3">
-        <v>229100</v>
+        <v>915900</v>
       </c>
       <c r="H100" s="3">
-        <v>22500</v>
+        <v>227000</v>
       </c>
       <c r="I100" s="3">
-        <v>246700</v>
+        <v>22300</v>
       </c>
       <c r="J100" s="3">
+        <v>244400</v>
+      </c>
+      <c r="K100" s="3">
         <v>92200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>142300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-44000</v>
+        <v>4200</v>
       </c>
       <c r="E102" s="3">
-        <v>34000</v>
+        <v>-43600</v>
       </c>
       <c r="F102" s="3">
-        <v>86100</v>
+        <v>33700</v>
       </c>
       <c r="G102" s="3">
-        <v>-273800</v>
+        <v>85300</v>
       </c>
       <c r="H102" s="3">
-        <v>312400</v>
+        <v>-271300</v>
       </c>
       <c r="I102" s="3">
-        <v>2900</v>
+        <v>309600</v>
       </c>
       <c r="J102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K102" s="3">
         <v>25500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>226800</v>
+        <v>377200</v>
       </c>
       <c r="E8" s="3">
-        <v>195400</v>
+        <v>233700</v>
       </c>
       <c r="F8" s="3">
-        <v>182200</v>
+        <v>201400</v>
       </c>
       <c r="G8" s="3">
-        <v>161400</v>
+        <v>187800</v>
       </c>
       <c r="H8" s="3">
-        <v>153800</v>
+        <v>167900</v>
       </c>
       <c r="I8" s="3">
-        <v>138800</v>
+        <v>158500</v>
       </c>
       <c r="J8" s="3">
+        <v>143000</v>
+      </c>
+      <c r="K8" s="3">
         <v>135300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>132400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>126500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>121600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>65600</v>
+        <v>72500</v>
       </c>
       <c r="E9" s="3">
-        <v>58800</v>
+        <v>67600</v>
       </c>
       <c r="F9" s="3">
-        <v>51700</v>
+        <v>60600</v>
       </c>
       <c r="G9" s="3">
-        <v>49500</v>
+        <v>53300</v>
       </c>
       <c r="H9" s="3">
-        <v>45500</v>
+        <v>52500</v>
       </c>
       <c r="I9" s="3">
-        <v>41700</v>
+        <v>46800</v>
       </c>
       <c r="J9" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K9" s="3">
         <v>47200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>46000</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>161200</v>
+        <v>304600</v>
       </c>
       <c r="E10" s="3">
-        <v>136600</v>
+        <v>166200</v>
       </c>
       <c r="F10" s="3">
-        <v>130500</v>
+        <v>140800</v>
       </c>
       <c r="G10" s="3">
-        <v>112000</v>
+        <v>134500</v>
       </c>
       <c r="H10" s="3">
-        <v>108300</v>
+        <v>115400</v>
       </c>
       <c r="I10" s="3">
-        <v>97100</v>
+        <v>111600</v>
       </c>
       <c r="J10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K10" s="3">
         <v>88100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75600</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +947,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>9100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>6900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="E15" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="F15" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>3800</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>10200</v>
       </c>
       <c r="I15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K15" s="3">
         <v>3400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3500</v>
       </c>
       <c r="L15" s="3">
         <v>3500</v>
       </c>
       <c r="M15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N15" s="3">
         <v>4300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-395500</v>
+        <v>82900</v>
       </c>
       <c r="E17" s="3">
-        <v>-78300</v>
+        <v>-407600</v>
       </c>
       <c r="F17" s="3">
-        <v>-51800</v>
+        <v>-80700</v>
       </c>
       <c r="G17" s="3">
-        <v>-186200</v>
+        <v>-53300</v>
       </c>
       <c r="H17" s="3">
-        <v>-96200</v>
+        <v>-153700</v>
       </c>
       <c r="I17" s="3">
-        <v>55400</v>
+        <v>-99100</v>
       </c>
       <c r="J17" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>194800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>622400</v>
+        <v>294300</v>
       </c>
       <c r="E18" s="3">
-        <v>273700</v>
+        <v>641300</v>
       </c>
       <c r="F18" s="3">
-        <v>234000</v>
+        <v>282100</v>
       </c>
       <c r="G18" s="3">
-        <v>347700</v>
+        <v>241100</v>
       </c>
       <c r="H18" s="3">
-        <v>250000</v>
+        <v>321600</v>
       </c>
       <c r="I18" s="3">
-        <v>83400</v>
+        <v>257600</v>
       </c>
       <c r="J18" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K18" s="3">
         <v>130400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-73100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,19 +1144,20 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1135,60 +1169,66 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>627000</v>
+        <v>299500</v>
       </c>
       <c r="E21" s="3">
-        <v>278100</v>
+        <v>646100</v>
       </c>
       <c r="F21" s="3">
-        <v>237700</v>
+        <v>286600</v>
       </c>
       <c r="G21" s="3">
-        <v>352600</v>
+        <v>244900</v>
       </c>
       <c r="H21" s="3">
-        <v>253700</v>
+        <v>326700</v>
       </c>
       <c r="I21" s="3">
-        <v>86900</v>
+        <v>261400</v>
       </c>
       <c r="J21" s="3">
+        <v>89500</v>
+      </c>
+      <c r="K21" s="3">
         <v>133800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-69600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,87 +1262,96 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>622400</v>
+        <v>294300</v>
       </c>
       <c r="E23" s="3">
-        <v>273700</v>
+        <v>641400</v>
       </c>
       <c r="F23" s="3">
-        <v>234100</v>
+        <v>282100</v>
       </c>
       <c r="G23" s="3">
-        <v>347700</v>
+        <v>241200</v>
       </c>
       <c r="H23" s="3">
-        <v>250000</v>
+        <v>321600</v>
       </c>
       <c r="I23" s="3">
-        <v>83400</v>
+        <v>257600</v>
       </c>
       <c r="J23" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K23" s="3">
         <v>130400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>48400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-73200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83600</v>
+        <v>56200</v>
       </c>
       <c r="E24" s="3">
-        <v>62500</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>69900</v>
+        <v>64400</v>
       </c>
       <c r="G24" s="3">
-        <v>86800</v>
+        <v>72100</v>
       </c>
       <c r="H24" s="3">
-        <v>60900</v>
+        <v>89400</v>
       </c>
       <c r="I24" s="3">
-        <v>29300</v>
+        <v>62800</v>
       </c>
       <c r="J24" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>538700</v>
+        <v>238100</v>
       </c>
       <c r="E26" s="3">
-        <v>211300</v>
+        <v>555200</v>
       </c>
       <c r="F26" s="3">
-        <v>164100</v>
+        <v>217700</v>
       </c>
       <c r="G26" s="3">
-        <v>260900</v>
+        <v>169100</v>
       </c>
       <c r="H26" s="3">
-        <v>189100</v>
+        <v>232200</v>
       </c>
       <c r="I26" s="3">
-        <v>54200</v>
+        <v>194900</v>
       </c>
       <c r="J26" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K26" s="3">
         <v>98000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-59300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>537400</v>
+        <v>237000</v>
       </c>
       <c r="E27" s="3">
-        <v>209800</v>
+        <v>553800</v>
       </c>
       <c r="F27" s="3">
-        <v>161700</v>
+        <v>216200</v>
       </c>
       <c r="G27" s="3">
-        <v>259600</v>
+        <v>166600</v>
       </c>
       <c r="H27" s="3">
-        <v>188100</v>
+        <v>230800</v>
       </c>
       <c r="I27" s="3">
-        <v>53400</v>
+        <v>193800</v>
       </c>
       <c r="J27" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K27" s="3">
         <v>95600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>68800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-59900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,13 +1511,16 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-3100</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1471,28 +1532,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>36700</v>
       </c>
       <c r="I29" s="3">
-        <v>-87300</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="K29" s="3">
         <v>7300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>6400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-16300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,19 +1634,22 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1591,60 +1661,66 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>537400</v>
+        <v>233900</v>
       </c>
       <c r="E33" s="3">
-        <v>209800</v>
+        <v>553800</v>
       </c>
       <c r="F33" s="3">
-        <v>161700</v>
+        <v>216200</v>
       </c>
       <c r="G33" s="3">
-        <v>259600</v>
+        <v>166600</v>
       </c>
       <c r="H33" s="3">
-        <v>188100</v>
+        <v>267500</v>
       </c>
       <c r="I33" s="3">
-        <v>-33900</v>
+        <v>193800</v>
       </c>
       <c r="J33" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K33" s="3">
         <v>103000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-52200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>537400</v>
+        <v>233900</v>
       </c>
       <c r="E35" s="3">
-        <v>209800</v>
+        <v>553800</v>
       </c>
       <c r="F35" s="3">
-        <v>161700</v>
+        <v>216200</v>
       </c>
       <c r="G35" s="3">
-        <v>259600</v>
+        <v>166600</v>
       </c>
       <c r="H35" s="3">
-        <v>188100</v>
+        <v>267500</v>
       </c>
       <c r="I35" s="3">
-        <v>-33900</v>
+        <v>193800</v>
       </c>
       <c r="J35" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K35" s="3">
         <v>103000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-52200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189300</v>
+        <v>189000</v>
       </c>
       <c r="E41" s="3">
-        <v>185100</v>
+        <v>195100</v>
       </c>
       <c r="F41" s="3">
-        <v>228600</v>
+        <v>190700</v>
       </c>
       <c r="G41" s="3">
-        <v>194900</v>
+        <v>235600</v>
       </c>
       <c r="H41" s="3">
-        <v>109600</v>
+        <v>200800</v>
       </c>
       <c r="I41" s="3">
-        <v>380900</v>
+        <v>112900</v>
       </c>
       <c r="J41" s="3">
+        <v>392500</v>
+      </c>
+      <c r="K41" s="3">
         <v>71300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>157800</v>
       </c>
       <c r="E43" s="3">
-        <v>55200</v>
+        <v>23400</v>
       </c>
       <c r="F43" s="3">
-        <v>53700</v>
+        <v>56900</v>
       </c>
       <c r="G43" s="3">
-        <v>26200</v>
+        <v>55400</v>
       </c>
       <c r="H43" s="3">
-        <v>38400</v>
+        <v>27000</v>
       </c>
       <c r="I43" s="3">
-        <v>52700</v>
+        <v>39600</v>
       </c>
       <c r="J43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K43" s="3">
         <v>33100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,198 +2042,216 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70200</v>
+        <v>332900</v>
       </c>
       <c r="E45" s="3">
-        <v>56700</v>
+        <v>72300</v>
       </c>
       <c r="F45" s="3">
-        <v>42600</v>
+        <v>58400</v>
       </c>
       <c r="G45" s="3">
-        <v>38900</v>
+        <v>43900</v>
       </c>
       <c r="H45" s="3">
-        <v>19400</v>
+        <v>40100</v>
       </c>
       <c r="I45" s="3">
-        <v>22900</v>
+        <v>20000</v>
       </c>
       <c r="J45" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K45" s="3">
         <v>17700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>282200</v>
+        <v>679700</v>
       </c>
       <c r="E46" s="3">
-        <v>296900</v>
+        <v>290800</v>
       </c>
       <c r="F46" s="3">
-        <v>324900</v>
+        <v>305900</v>
       </c>
       <c r="G46" s="3">
-        <v>260000</v>
+        <v>334800</v>
       </c>
       <c r="H46" s="3">
-        <v>167400</v>
+        <v>267900</v>
       </c>
       <c r="I46" s="3">
-        <v>456500</v>
+        <v>172500</v>
       </c>
       <c r="J46" s="3">
+        <v>470400</v>
+      </c>
+      <c r="K46" s="3">
         <v>122000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>111700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>81500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14035900</v>
+        <v>15295700</v>
       </c>
       <c r="E47" s="3">
-        <v>12359200</v>
+        <v>14463800</v>
       </c>
       <c r="F47" s="3">
-        <v>11053600</v>
+        <v>12735900</v>
       </c>
       <c r="G47" s="3">
-        <v>9770200</v>
+        <v>11390600</v>
       </c>
       <c r="H47" s="3">
-        <v>8379700</v>
+        <v>10068100</v>
       </c>
       <c r="I47" s="3">
-        <v>7462400</v>
+        <v>8635200</v>
       </c>
       <c r="J47" s="3">
+        <v>7689900</v>
+      </c>
+      <c r="K47" s="3">
         <v>8648300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8305700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7913000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7771300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>115900</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>109500</v>
+        <v>119500</v>
       </c>
       <c r="G48" s="3">
-        <v>105100</v>
+        <v>112900</v>
       </c>
       <c r="H48" s="3">
-        <v>106100</v>
+        <v>108300</v>
       </c>
       <c r="I48" s="3">
-        <v>66100</v>
+        <v>109300</v>
       </c>
       <c r="J48" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K48" s="3">
         <v>62000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>59900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>49000</v>
+        <v>49800</v>
       </c>
       <c r="E49" s="3">
-        <v>49700</v>
+        <v>50500</v>
       </c>
       <c r="F49" s="3">
-        <v>50500</v>
+        <v>51200</v>
       </c>
       <c r="G49" s="3">
-        <v>50400</v>
+        <v>52000</v>
       </c>
       <c r="H49" s="3">
-        <v>52200</v>
+        <v>51900</v>
       </c>
       <c r="I49" s="3">
-        <v>53100</v>
+        <v>53800</v>
       </c>
       <c r="J49" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K49" s="3">
         <v>156600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>159400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>157000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>158200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>479100</v>
+        <v>497600</v>
       </c>
       <c r="E52" s="3">
-        <v>318300</v>
+        <v>493700</v>
       </c>
       <c r="F52" s="3">
-        <v>285200</v>
+        <v>328000</v>
       </c>
       <c r="G52" s="3">
-        <v>279400</v>
+        <v>293800</v>
       </c>
       <c r="H52" s="3">
-        <v>234900</v>
+        <v>287900</v>
       </c>
       <c r="I52" s="3">
-        <v>202900</v>
+        <v>242100</v>
       </c>
       <c r="J52" s="3">
+        <v>209000</v>
+      </c>
+      <c r="K52" s="3">
         <v>283800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>277300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>249700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>236300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14846200</v>
+        <v>16522800</v>
       </c>
       <c r="E54" s="3">
-        <v>13139900</v>
+        <v>15298800</v>
       </c>
       <c r="F54" s="3">
-        <v>11823700</v>
+        <v>13540500</v>
       </c>
       <c r="G54" s="3">
-        <v>10465100</v>
+        <v>12184100</v>
       </c>
       <c r="H54" s="3">
-        <v>8940400</v>
+        <v>10784100</v>
       </c>
       <c r="I54" s="3">
-        <v>8241100</v>
+        <v>9212900</v>
       </c>
       <c r="J54" s="3">
+        <v>8492300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9272800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8913900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8458000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8331700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>168200</v>
+        <v>264000</v>
       </c>
       <c r="E57" s="3">
-        <v>60600</v>
+        <v>173300</v>
       </c>
       <c r="F57" s="3">
-        <v>56200</v>
+        <v>62500</v>
       </c>
       <c r="G57" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="H57" s="3">
-        <v>42300</v>
+        <v>61500</v>
       </c>
       <c r="I57" s="3">
-        <v>38300</v>
+        <v>43600</v>
       </c>
       <c r="J57" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K57" s="3">
         <v>40300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>85500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>74200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>446300</v>
+        <v>639700</v>
       </c>
       <c r="E58" s="3">
-        <v>334100</v>
+        <v>459900</v>
       </c>
       <c r="F58" s="3">
-        <v>331700</v>
+        <v>344300</v>
       </c>
       <c r="G58" s="3">
-        <v>634300</v>
+        <v>341800</v>
       </c>
       <c r="H58" s="3">
-        <v>251800</v>
+        <v>653600</v>
       </c>
       <c r="I58" s="3">
-        <v>186800</v>
+        <v>259500</v>
       </c>
       <c r="J58" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K58" s="3">
         <v>356700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>177400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>168600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>179000</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104900</v>
+        <v>184000</v>
       </c>
       <c r="E59" s="3">
-        <v>173200</v>
+        <v>108100</v>
       </c>
       <c r="F59" s="3">
-        <v>168300</v>
+        <v>178500</v>
       </c>
       <c r="G59" s="3">
-        <v>185000</v>
+        <v>173500</v>
       </c>
       <c r="H59" s="3">
-        <v>178500</v>
+        <v>190600</v>
       </c>
       <c r="I59" s="3">
-        <v>132700</v>
+        <v>184000</v>
       </c>
       <c r="J59" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K59" s="3">
         <v>156500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>719400</v>
+        <v>1087700</v>
       </c>
       <c r="E60" s="3">
-        <v>567900</v>
+        <v>741300</v>
       </c>
       <c r="F60" s="3">
-        <v>556200</v>
+        <v>585200</v>
       </c>
       <c r="G60" s="3">
-        <v>879000</v>
+        <v>573200</v>
       </c>
       <c r="H60" s="3">
-        <v>472700</v>
+        <v>905800</v>
       </c>
       <c r="I60" s="3">
-        <v>357800</v>
+        <v>487100</v>
       </c>
       <c r="J60" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K60" s="3">
         <v>553500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>397800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>352400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>334700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6506400</v>
+        <v>7269200</v>
       </c>
       <c r="E61" s="3">
-        <v>5714500</v>
+        <v>6704700</v>
       </c>
       <c r="F61" s="3">
-        <v>5102300</v>
+        <v>5888700</v>
       </c>
       <c r="G61" s="3">
-        <v>4656600</v>
+        <v>5257900</v>
       </c>
       <c r="H61" s="3">
-        <v>4561100</v>
+        <v>4798600</v>
       </c>
       <c r="I61" s="3">
-        <v>4666900</v>
+        <v>4700100</v>
       </c>
       <c r="J61" s="3">
+        <v>4809100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5538600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5536900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5293000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5225000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2949700</v>
+        <v>3159600</v>
       </c>
       <c r="E62" s="3">
-        <v>2695700</v>
+        <v>3039700</v>
       </c>
       <c r="F62" s="3">
-        <v>2209000</v>
+        <v>2777900</v>
       </c>
       <c r="G62" s="3">
-        <v>1827900</v>
+        <v>2276400</v>
       </c>
       <c r="H62" s="3">
-        <v>1309900</v>
+        <v>1883600</v>
       </c>
       <c r="I62" s="3">
-        <v>1008100</v>
+        <v>1349800</v>
       </c>
       <c r="J62" s="3">
+        <v>1038900</v>
+      </c>
+      <c r="K62" s="3">
         <v>927700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>805100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>755900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>731900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10182700</v>
+        <v>11523400</v>
       </c>
       <c r="E66" s="3">
-        <v>8986200</v>
+        <v>10493200</v>
       </c>
       <c r="F66" s="3">
-        <v>7876900</v>
+        <v>9260100</v>
       </c>
       <c r="G66" s="3">
-        <v>7370500</v>
+        <v>8117100</v>
       </c>
       <c r="H66" s="3">
-        <v>6351400</v>
+        <v>7595200</v>
       </c>
       <c r="I66" s="3">
-        <v>6041300</v>
+        <v>6545000</v>
       </c>
       <c r="J66" s="3">
+        <v>6225400</v>
+      </c>
+      <c r="K66" s="3">
         <v>7030300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6750600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6411200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6301200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1860800</v>
+        <v>2130300</v>
       </c>
       <c r="E72" s="3">
-        <v>1343900</v>
+        <v>1917600</v>
       </c>
       <c r="F72" s="3">
-        <v>1154600</v>
+        <v>1384900</v>
       </c>
       <c r="G72" s="3">
-        <v>1013300</v>
+        <v>1189800</v>
       </c>
       <c r="H72" s="3">
-        <v>769800</v>
+        <v>1044200</v>
       </c>
       <c r="I72" s="3">
-        <v>597100</v>
+        <v>793300</v>
       </c>
       <c r="J72" s="3">
+        <v>615300</v>
+      </c>
+      <c r="K72" s="3">
         <v>644900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>560800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>487400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>478100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4663400</v>
+        <v>4999300</v>
       </c>
       <c r="E76" s="3">
-        <v>4153800</v>
+        <v>4805600</v>
       </c>
       <c r="F76" s="3">
-        <v>3946700</v>
+        <v>4280400</v>
       </c>
       <c r="G76" s="3">
-        <v>3094600</v>
+        <v>4067000</v>
       </c>
       <c r="H76" s="3">
-        <v>2589000</v>
+        <v>3188900</v>
       </c>
       <c r="I76" s="3">
-        <v>2199800</v>
+        <v>2667900</v>
       </c>
       <c r="J76" s="3">
+        <v>2266900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2242400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2163300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2046800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2030500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>537400</v>
+        <v>233900</v>
       </c>
       <c r="E81" s="3">
-        <v>209800</v>
+        <v>553800</v>
       </c>
       <c r="F81" s="3">
-        <v>161700</v>
+        <v>216200</v>
       </c>
       <c r="G81" s="3">
-        <v>259600</v>
+        <v>166600</v>
       </c>
       <c r="H81" s="3">
-        <v>188100</v>
+        <v>267500</v>
       </c>
       <c r="I81" s="3">
-        <v>-33900</v>
+        <v>193800</v>
       </c>
       <c r="J81" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K81" s="3">
         <v>103000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-52200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,34 +3429,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="E83" s="3">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3500</v>
       </c>
       <c r="L83" s="3">
         <v>3500</v>
@@ -3267,10 +3466,13 @@
         <v>3500</v>
       </c>
       <c r="N83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>132300</v>
+        <v>142700</v>
       </c>
       <c r="E89" s="3">
-        <v>50000</v>
+        <v>136300</v>
       </c>
       <c r="F89" s="3">
-        <v>800</v>
+        <v>51500</v>
       </c>
       <c r="G89" s="3">
-        <v>76300</v>
+        <v>-6000</v>
       </c>
       <c r="H89" s="3">
-        <v>54100</v>
+        <v>85500</v>
       </c>
       <c r="I89" s="3">
-        <v>15800</v>
+        <v>55800</v>
       </c>
       <c r="J89" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>56100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>61800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13600</v>
+        <v>-10000</v>
       </c>
       <c r="E91" s="3">
-        <v>-11300</v>
+        <v>-14100</v>
       </c>
       <c r="F91" s="3">
-        <v>-9900</v>
+        <v>-11700</v>
       </c>
       <c r="G91" s="3">
-        <v>-9500</v>
+        <v>-10200</v>
       </c>
       <c r="H91" s="3">
-        <v>-17600</v>
+        <v>-9700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5500</v>
+        <v>-18200</v>
       </c>
       <c r="J91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1177100</v>
+        <v>-972000</v>
       </c>
       <c r="E94" s="3">
-        <v>-902300</v>
+        <v>-1213000</v>
       </c>
       <c r="F94" s="3">
-        <v>-890900</v>
+        <v>-929800</v>
       </c>
       <c r="G94" s="3">
-        <v>-906700</v>
+        <v>-918100</v>
       </c>
       <c r="H94" s="3">
-        <v>-552400</v>
+        <v>-934400</v>
       </c>
       <c r="I94" s="3">
-        <v>271400</v>
+        <v>-569300</v>
       </c>
       <c r="J94" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-263100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-124200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-129100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21000</v>
+        <v>-9100</v>
       </c>
       <c r="E96" s="3">
-        <v>-15600</v>
+        <v>-21600</v>
       </c>
       <c r="F96" s="3">
-        <v>-48200</v>
+        <v>-16100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-49600</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-2600</v>
-      </c>
       <c r="J96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-11200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-33700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1049200</v>
+        <v>823600</v>
       </c>
       <c r="E100" s="3">
-        <v>808700</v>
+        <v>1081200</v>
       </c>
       <c r="F100" s="3">
-        <v>923800</v>
+        <v>833300</v>
       </c>
       <c r="G100" s="3">
-        <v>915900</v>
+        <v>952000</v>
       </c>
       <c r="H100" s="3">
-        <v>227000</v>
+        <v>943800</v>
       </c>
       <c r="I100" s="3">
-        <v>22300</v>
+        <v>233900</v>
       </c>
       <c r="J100" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K100" s="3">
         <v>244400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>92200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>142300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4200</v>
+        <v>-6100</v>
       </c>
       <c r="E102" s="3">
-        <v>-43600</v>
+        <v>4400</v>
       </c>
       <c r="F102" s="3">
-        <v>33700</v>
+        <v>-44900</v>
       </c>
       <c r="G102" s="3">
-        <v>85300</v>
+        <v>34700</v>
       </c>
       <c r="H102" s="3">
-        <v>-271300</v>
+        <v>87900</v>
       </c>
       <c r="I102" s="3">
-        <v>309600</v>
+        <v>-279600</v>
       </c>
       <c r="J102" s="3">
+        <v>319000</v>
+      </c>
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>25500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>377200</v>
+        <v>270600</v>
       </c>
       <c r="E8" s="3">
-        <v>233700</v>
+        <v>391600</v>
       </c>
       <c r="F8" s="3">
-        <v>201400</v>
+        <v>451700</v>
       </c>
       <c r="G8" s="3">
-        <v>187800</v>
+        <v>209100</v>
       </c>
       <c r="H8" s="3">
-        <v>167900</v>
+        <v>196500</v>
       </c>
       <c r="I8" s="3">
-        <v>158500</v>
+        <v>174400</v>
       </c>
       <c r="J8" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K8" s="3">
         <v>143000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>132400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>121600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72500</v>
+        <v>80700</v>
       </c>
       <c r="E9" s="3">
-        <v>67600</v>
+        <v>75300</v>
       </c>
       <c r="F9" s="3">
-        <v>60600</v>
+        <v>133100</v>
       </c>
       <c r="G9" s="3">
-        <v>53300</v>
+        <v>62900</v>
       </c>
       <c r="H9" s="3">
-        <v>52500</v>
+        <v>56800</v>
       </c>
       <c r="I9" s="3">
-        <v>46800</v>
+        <v>54500</v>
       </c>
       <c r="J9" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K9" s="3">
         <v>43000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>44900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46000</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>304600</v>
+        <v>189900</v>
       </c>
       <c r="E10" s="3">
-        <v>166200</v>
+        <v>316300</v>
       </c>
       <c r="F10" s="3">
-        <v>140800</v>
+        <v>318600</v>
       </c>
       <c r="G10" s="3">
-        <v>134500</v>
+        <v>146100</v>
       </c>
       <c r="H10" s="3">
-        <v>115400</v>
+        <v>139700</v>
       </c>
       <c r="I10" s="3">
-        <v>111600</v>
+        <v>119900</v>
       </c>
       <c r="J10" s="3">
+        <v>115900</v>
+      </c>
+      <c r="K10" s="3">
         <v>100000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>81700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75600</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9100</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>6900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="E15" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="F15" s="3">
-        <v>4500</v>
+        <v>9700</v>
       </c>
       <c r="G15" s="3">
-        <v>3800</v>
+        <v>4700</v>
       </c>
       <c r="H15" s="3">
-        <v>10200</v>
+        <v>7900</v>
       </c>
       <c r="I15" s="3">
-        <v>3800</v>
+        <v>10500</v>
       </c>
       <c r="J15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3500</v>
       </c>
       <c r="M15" s="3">
         <v>3500</v>
       </c>
       <c r="N15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O15" s="3">
         <v>4300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>82900</v>
+        <v>193400</v>
       </c>
       <c r="E17" s="3">
-        <v>-407600</v>
+        <v>86000</v>
       </c>
       <c r="F17" s="3">
-        <v>-80700</v>
+        <v>-457700</v>
       </c>
       <c r="G17" s="3">
-        <v>-53300</v>
+        <v>-83800</v>
       </c>
       <c r="H17" s="3">
-        <v>-153700</v>
+        <v>-9900</v>
       </c>
       <c r="I17" s="3">
-        <v>-99100</v>
+        <v>-159600</v>
       </c>
       <c r="J17" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="K17" s="3">
         <v>57100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>194800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>294300</v>
+        <v>77200</v>
       </c>
       <c r="E18" s="3">
-        <v>641300</v>
+        <v>305500</v>
       </c>
       <c r="F18" s="3">
-        <v>282100</v>
+        <v>909500</v>
       </c>
       <c r="G18" s="3">
-        <v>241100</v>
+        <v>292900</v>
       </c>
       <c r="H18" s="3">
-        <v>321600</v>
+        <v>206400</v>
       </c>
       <c r="I18" s="3">
-        <v>257600</v>
+        <v>333900</v>
       </c>
       <c r="J18" s="3">
+        <v>267400</v>
+      </c>
+      <c r="K18" s="3">
         <v>86000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>130400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>89900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-73100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,22 +1177,23 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1172,63 +1205,69 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>299500</v>
+        <v>83800</v>
       </c>
       <c r="E21" s="3">
-        <v>646100</v>
+        <v>310900</v>
       </c>
       <c r="F21" s="3">
-        <v>286600</v>
+        <v>919200</v>
       </c>
       <c r="G21" s="3">
-        <v>244900</v>
+        <v>297600</v>
       </c>
       <c r="H21" s="3">
-        <v>326700</v>
+        <v>210200</v>
       </c>
       <c r="I21" s="3">
-        <v>261400</v>
+        <v>339200</v>
       </c>
       <c r="J21" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K21" s="3">
         <v>89500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>133800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-69600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,93 +1304,102 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>294300</v>
+        <v>77200</v>
       </c>
       <c r="E23" s="3">
-        <v>641400</v>
+        <v>305600</v>
       </c>
       <c r="F23" s="3">
-        <v>282100</v>
+        <v>909500</v>
       </c>
       <c r="G23" s="3">
-        <v>241200</v>
+        <v>292900</v>
       </c>
       <c r="H23" s="3">
-        <v>321600</v>
+        <v>206300</v>
       </c>
       <c r="I23" s="3">
-        <v>257600</v>
+        <v>333900</v>
       </c>
       <c r="J23" s="3">
+        <v>267500</v>
+      </c>
+      <c r="K23" s="3">
         <v>86000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-73200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56200</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>86200</v>
+        <v>58400</v>
       </c>
       <c r="F24" s="3">
-        <v>64400</v>
+        <v>156300</v>
       </c>
       <c r="G24" s="3">
-        <v>72100</v>
+        <v>66900</v>
       </c>
       <c r="H24" s="3">
-        <v>89400</v>
+        <v>53600</v>
       </c>
       <c r="I24" s="3">
-        <v>62800</v>
+        <v>92900</v>
       </c>
       <c r="J24" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K24" s="3">
         <v>30200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-13900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>238100</v>
+        <v>77300</v>
       </c>
       <c r="E26" s="3">
-        <v>555200</v>
+        <v>247200</v>
       </c>
       <c r="F26" s="3">
-        <v>217700</v>
+        <v>753200</v>
       </c>
       <c r="G26" s="3">
-        <v>169100</v>
+        <v>226000</v>
       </c>
       <c r="H26" s="3">
-        <v>232200</v>
+        <v>152700</v>
       </c>
       <c r="I26" s="3">
-        <v>194900</v>
+        <v>241100</v>
       </c>
       <c r="J26" s="3">
+        <v>202300</v>
+      </c>
+      <c r="K26" s="3">
         <v>55800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>69400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-59300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>237000</v>
+        <v>73800</v>
       </c>
       <c r="E27" s="3">
-        <v>553800</v>
+        <v>246000</v>
       </c>
       <c r="F27" s="3">
-        <v>216200</v>
+        <v>750200</v>
       </c>
       <c r="G27" s="3">
-        <v>166600</v>
+        <v>224500</v>
       </c>
       <c r="H27" s="3">
-        <v>230800</v>
+        <v>150100</v>
       </c>
       <c r="I27" s="3">
-        <v>193800</v>
+        <v>239600</v>
       </c>
       <c r="J27" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K27" s="3">
         <v>55000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>95600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>68800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-59900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,49 +1571,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3100</v>
+        <v>2500</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>49200</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>36700</v>
+        <v>22900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-90000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>6400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-16300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,22 +1703,25 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1664,63 +1733,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>233900</v>
+        <v>76300</v>
       </c>
       <c r="E33" s="3">
-        <v>553800</v>
+        <v>242800</v>
       </c>
       <c r="F33" s="3">
-        <v>216200</v>
+        <v>799500</v>
       </c>
       <c r="G33" s="3">
-        <v>166600</v>
+        <v>224500</v>
       </c>
       <c r="H33" s="3">
-        <v>267500</v>
+        <v>173000</v>
       </c>
       <c r="I33" s="3">
-        <v>193800</v>
+        <v>277700</v>
       </c>
       <c r="J33" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-34900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-52200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>233900</v>
+        <v>76300</v>
       </c>
       <c r="E35" s="3">
-        <v>553800</v>
+        <v>242800</v>
       </c>
       <c r="F35" s="3">
-        <v>216200</v>
+        <v>799500</v>
       </c>
       <c r="G35" s="3">
-        <v>166600</v>
+        <v>224500</v>
       </c>
       <c r="H35" s="3">
-        <v>267500</v>
+        <v>173000</v>
       </c>
       <c r="I35" s="3">
-        <v>193800</v>
+        <v>277700</v>
       </c>
       <c r="J35" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-34900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-52200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>189000</v>
+        <v>282500</v>
       </c>
       <c r="E41" s="3">
-        <v>195100</v>
+        <v>196200</v>
       </c>
       <c r="F41" s="3">
-        <v>190700</v>
+        <v>202500</v>
       </c>
       <c r="G41" s="3">
-        <v>235600</v>
+        <v>198000</v>
       </c>
       <c r="H41" s="3">
-        <v>200800</v>
+        <v>244600</v>
       </c>
       <c r="I41" s="3">
-        <v>112900</v>
+        <v>208500</v>
       </c>
       <c r="J41" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K41" s="3">
         <v>392500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>157800</v>
+        <v>34500</v>
       </c>
       <c r="E43" s="3">
-        <v>23400</v>
+        <v>163800</v>
       </c>
       <c r="F43" s="3">
-        <v>56900</v>
+        <v>24300</v>
       </c>
       <c r="G43" s="3">
-        <v>55400</v>
+        <v>59000</v>
       </c>
       <c r="H43" s="3">
-        <v>27000</v>
+        <v>57500</v>
       </c>
       <c r="I43" s="3">
-        <v>39600</v>
+        <v>28000</v>
       </c>
       <c r="J43" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K43" s="3">
         <v>54300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,213 +2140,231 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>332900</v>
+        <v>51900</v>
       </c>
       <c r="E45" s="3">
-        <v>72300</v>
+        <v>345600</v>
       </c>
       <c r="F45" s="3">
-        <v>58400</v>
+        <v>75100</v>
       </c>
       <c r="G45" s="3">
-        <v>43900</v>
+        <v>60600</v>
       </c>
       <c r="H45" s="3">
-        <v>40100</v>
+        <v>45600</v>
       </c>
       <c r="I45" s="3">
-        <v>20000</v>
+        <v>41600</v>
       </c>
       <c r="J45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K45" s="3">
         <v>23600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>679700</v>
+        <v>368900</v>
       </c>
       <c r="E46" s="3">
-        <v>290800</v>
+        <v>705700</v>
       </c>
       <c r="F46" s="3">
-        <v>305900</v>
+        <v>301900</v>
       </c>
       <c r="G46" s="3">
-        <v>334800</v>
+        <v>317600</v>
       </c>
       <c r="H46" s="3">
-        <v>267900</v>
+        <v>347600</v>
       </c>
       <c r="I46" s="3">
-        <v>172500</v>
+        <v>278100</v>
       </c>
       <c r="J46" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K46" s="3">
         <v>470400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>111700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>81500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15295700</v>
+        <v>16381900</v>
       </c>
       <c r="E47" s="3">
-        <v>14463800</v>
+        <v>15880300</v>
       </c>
       <c r="F47" s="3">
-        <v>12735900</v>
+        <v>15016600</v>
       </c>
       <c r="G47" s="3">
-        <v>11390600</v>
+        <v>13222700</v>
       </c>
       <c r="H47" s="3">
-        <v>10068100</v>
+        <v>11825900</v>
       </c>
       <c r="I47" s="3">
-        <v>8635200</v>
+        <v>10452900</v>
       </c>
       <c r="J47" s="3">
+        <v>8965200</v>
+      </c>
+      <c r="K47" s="3">
         <v>7689900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8648300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8305700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7913000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7771300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>133900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>119500</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>112900</v>
+        <v>124000</v>
       </c>
       <c r="H48" s="3">
-        <v>108300</v>
+        <v>117200</v>
       </c>
       <c r="I48" s="3">
-        <v>109300</v>
+        <v>112500</v>
       </c>
       <c r="J48" s="3">
+        <v>113500</v>
+      </c>
+      <c r="K48" s="3">
         <v>68100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>49800</v>
+        <v>50900</v>
       </c>
       <c r="E49" s="3">
-        <v>50500</v>
+        <v>51700</v>
       </c>
       <c r="F49" s="3">
-        <v>51200</v>
+        <v>52400</v>
       </c>
       <c r="G49" s="3">
-        <v>52000</v>
+        <v>53200</v>
       </c>
       <c r="H49" s="3">
-        <v>51900</v>
+        <v>54000</v>
       </c>
       <c r="I49" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="J49" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K49" s="3">
         <v>54700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>156600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>159400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>157000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>158200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>497600</v>
+        <v>280300</v>
       </c>
       <c r="E52" s="3">
-        <v>493700</v>
+        <v>516600</v>
       </c>
       <c r="F52" s="3">
-        <v>328000</v>
+        <v>512600</v>
       </c>
       <c r="G52" s="3">
-        <v>293800</v>
+        <v>340500</v>
       </c>
       <c r="H52" s="3">
-        <v>287900</v>
+        <v>305100</v>
       </c>
       <c r="I52" s="3">
-        <v>242100</v>
+        <v>298900</v>
       </c>
       <c r="J52" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K52" s="3">
         <v>209000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>283800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>277300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>249700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>236300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16522800</v>
+        <v>17215900</v>
       </c>
       <c r="E54" s="3">
-        <v>15298800</v>
+        <v>17154300</v>
       </c>
       <c r="F54" s="3">
-        <v>13540500</v>
+        <v>15883500</v>
       </c>
       <c r="G54" s="3">
-        <v>12184100</v>
+        <v>14058000</v>
       </c>
       <c r="H54" s="3">
-        <v>10784100</v>
+        <v>12649800</v>
       </c>
       <c r="I54" s="3">
-        <v>9212900</v>
+        <v>11196300</v>
       </c>
       <c r="J54" s="3">
+        <v>9565000</v>
+      </c>
+      <c r="K54" s="3">
         <v>8492300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9272800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8913900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8458000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8331700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>264000</v>
+        <v>47300</v>
       </c>
       <c r="E57" s="3">
-        <v>173300</v>
+        <v>274100</v>
       </c>
       <c r="F57" s="3">
-        <v>62500</v>
+        <v>179900</v>
       </c>
       <c r="G57" s="3">
-        <v>57900</v>
+        <v>64900</v>
       </c>
       <c r="H57" s="3">
-        <v>61500</v>
+        <v>60100</v>
       </c>
       <c r="I57" s="3">
-        <v>43600</v>
+        <v>63900</v>
       </c>
       <c r="J57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K57" s="3">
         <v>39400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>34900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>85500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>74200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>639700</v>
+        <v>1051900</v>
       </c>
       <c r="E58" s="3">
-        <v>459900</v>
+        <v>664100</v>
       </c>
       <c r="F58" s="3">
-        <v>344300</v>
+        <v>477500</v>
       </c>
       <c r="G58" s="3">
-        <v>341800</v>
+        <v>357400</v>
       </c>
       <c r="H58" s="3">
-        <v>653600</v>
+        <v>354900</v>
       </c>
       <c r="I58" s="3">
-        <v>259500</v>
+        <v>678600</v>
       </c>
       <c r="J58" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K58" s="3">
         <v>192500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>356700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>177400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>168600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>179000</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>184000</v>
+        <v>271200</v>
       </c>
       <c r="E59" s="3">
-        <v>108100</v>
+        <v>191000</v>
       </c>
       <c r="F59" s="3">
-        <v>178500</v>
+        <v>112300</v>
       </c>
       <c r="G59" s="3">
-        <v>173500</v>
+        <v>185300</v>
       </c>
       <c r="H59" s="3">
-        <v>190600</v>
+        <v>180100</v>
       </c>
       <c r="I59" s="3">
-        <v>184000</v>
+        <v>197900</v>
       </c>
       <c r="J59" s="3">
+        <v>191000</v>
+      </c>
+      <c r="K59" s="3">
         <v>136800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1087700</v>
+        <v>1370400</v>
       </c>
       <c r="E60" s="3">
-        <v>741300</v>
+        <v>1129300</v>
       </c>
       <c r="F60" s="3">
-        <v>585200</v>
+        <v>769700</v>
       </c>
       <c r="G60" s="3">
-        <v>573200</v>
+        <v>607600</v>
       </c>
       <c r="H60" s="3">
-        <v>905800</v>
+        <v>595100</v>
       </c>
       <c r="I60" s="3">
-        <v>487100</v>
+        <v>940400</v>
       </c>
       <c r="J60" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K60" s="3">
         <v>368700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>553500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>397800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>352400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>334700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7269200</v>
+        <v>7270100</v>
       </c>
       <c r="E61" s="3">
-        <v>6704700</v>
+        <v>7547100</v>
       </c>
       <c r="F61" s="3">
-        <v>5888700</v>
+        <v>6961000</v>
       </c>
       <c r="G61" s="3">
-        <v>5257900</v>
+        <v>6113800</v>
       </c>
       <c r="H61" s="3">
-        <v>4798600</v>
+        <v>5458800</v>
       </c>
       <c r="I61" s="3">
-        <v>4700100</v>
+        <v>4982000</v>
       </c>
       <c r="J61" s="3">
+        <v>4879800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4809100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5538600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5536900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5293000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5225000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3159600</v>
+        <v>3325200</v>
       </c>
       <c r="E62" s="3">
-        <v>3039700</v>
+        <v>3280300</v>
       </c>
       <c r="F62" s="3">
-        <v>2777900</v>
+        <v>3155800</v>
       </c>
       <c r="G62" s="3">
-        <v>2276400</v>
+        <v>2884100</v>
       </c>
       <c r="H62" s="3">
-        <v>1883600</v>
+        <v>2363400</v>
       </c>
       <c r="I62" s="3">
-        <v>1349800</v>
+        <v>1955600</v>
       </c>
       <c r="J62" s="3">
+        <v>1401400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1038900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>927700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>805100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>755900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>731900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11523400</v>
+        <v>11975100</v>
       </c>
       <c r="E66" s="3">
-        <v>10493200</v>
+        <v>11963800</v>
       </c>
       <c r="F66" s="3">
-        <v>9260100</v>
+        <v>10894200</v>
       </c>
       <c r="G66" s="3">
-        <v>8117100</v>
+        <v>9614000</v>
       </c>
       <c r="H66" s="3">
-        <v>7595200</v>
+        <v>8427300</v>
       </c>
       <c r="I66" s="3">
-        <v>6545000</v>
+        <v>7885500</v>
       </c>
       <c r="J66" s="3">
+        <v>6795200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6225400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7030300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6750600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6411200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6301200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2130300</v>
+        <v>2265000</v>
       </c>
       <c r="E72" s="3">
-        <v>1917600</v>
+        <v>2211700</v>
       </c>
       <c r="F72" s="3">
-        <v>1384900</v>
+        <v>1990800</v>
       </c>
       <c r="G72" s="3">
-        <v>1189800</v>
+        <v>1437800</v>
       </c>
       <c r="H72" s="3">
-        <v>1044200</v>
+        <v>1235300</v>
       </c>
       <c r="I72" s="3">
-        <v>793300</v>
+        <v>1084100</v>
       </c>
       <c r="J72" s="3">
+        <v>823600</v>
+      </c>
+      <c r="K72" s="3">
         <v>615300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>644900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>560800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>487400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>478100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4999300</v>
+        <v>5240800</v>
       </c>
       <c r="E76" s="3">
-        <v>4805600</v>
+        <v>5190400</v>
       </c>
       <c r="F76" s="3">
-        <v>4280400</v>
+        <v>4989300</v>
       </c>
       <c r="G76" s="3">
-        <v>4067000</v>
+        <v>4444000</v>
       </c>
       <c r="H76" s="3">
-        <v>3188900</v>
+        <v>4222500</v>
       </c>
       <c r="I76" s="3">
-        <v>2667900</v>
+        <v>3310800</v>
       </c>
       <c r="J76" s="3">
+        <v>2769900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2266900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2242400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2163300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2046800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2030500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>233900</v>
+        <v>76300</v>
       </c>
       <c r="E81" s="3">
-        <v>553800</v>
+        <v>242800</v>
       </c>
       <c r="F81" s="3">
-        <v>216200</v>
+        <v>799500</v>
       </c>
       <c r="G81" s="3">
-        <v>166600</v>
+        <v>224500</v>
       </c>
       <c r="H81" s="3">
-        <v>267500</v>
+        <v>173000</v>
       </c>
       <c r="I81" s="3">
-        <v>193800</v>
+        <v>277700</v>
       </c>
       <c r="J81" s="3">
+        <v>201200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-34900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-52200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,37 +3627,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="F83" s="3">
-        <v>4500</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
-        <v>3800</v>
+        <v>4700</v>
       </c>
       <c r="H83" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="I83" s="3">
-        <v>3800</v>
+        <v>5300</v>
       </c>
       <c r="J83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3500</v>
       </c>
       <c r="M83" s="3">
         <v>3500</v>
@@ -3469,10 +3667,13 @@
         <v>3500</v>
       </c>
       <c r="O83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>142700</v>
+        <v>30600</v>
       </c>
       <c r="E89" s="3">
-        <v>136300</v>
+        <v>148100</v>
       </c>
       <c r="F89" s="3">
-        <v>51500</v>
+        <v>195000</v>
       </c>
       <c r="G89" s="3">
-        <v>-6000</v>
+        <v>53500</v>
       </c>
       <c r="H89" s="3">
-        <v>85500</v>
+        <v>900</v>
       </c>
       <c r="I89" s="3">
-        <v>55800</v>
+        <v>88700</v>
       </c>
       <c r="J89" s="3">
+        <v>57900</v>
+      </c>
+      <c r="K89" s="3">
         <v>16300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>61800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10000</v>
+        <v>-12700</v>
       </c>
       <c r="E91" s="3">
-        <v>-14100</v>
+        <v>-10300</v>
       </c>
       <c r="F91" s="3">
-        <v>-11700</v>
+        <v>-26700</v>
       </c>
       <c r="G91" s="3">
-        <v>-10200</v>
+        <v>-12100</v>
       </c>
       <c r="H91" s="3">
-        <v>-9700</v>
+        <v>-10500</v>
       </c>
       <c r="I91" s="3">
-        <v>-18200</v>
+        <v>-10100</v>
       </c>
       <c r="J91" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-972000</v>
+        <v>-113200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1213000</v>
+        <v>-1009100</v>
       </c>
       <c r="F94" s="3">
-        <v>-929800</v>
+        <v>-2224700</v>
       </c>
       <c r="G94" s="3">
-        <v>-918100</v>
+        <v>-965300</v>
       </c>
       <c r="H94" s="3">
-        <v>-934400</v>
+        <v>-953200</v>
       </c>
       <c r="I94" s="3">
-        <v>-569300</v>
+        <v>-970100</v>
       </c>
       <c r="J94" s="3">
+        <v>-591000</v>
+      </c>
+      <c r="K94" s="3">
         <v>279700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-263100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-124200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-129100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-9100</v>
+        <v>-3100</v>
       </c>
       <c r="E96" s="3">
-        <v>-21600</v>
+        <v>-9400</v>
       </c>
       <c r="F96" s="3">
-        <v>-16100</v>
+        <v>-39100</v>
       </c>
       <c r="G96" s="3">
-        <v>-49600</v>
+        <v>-16700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-51500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-33700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>823600</v>
+        <v>168700</v>
       </c>
       <c r="E100" s="3">
-        <v>1081200</v>
+        <v>855100</v>
       </c>
       <c r="F100" s="3">
-        <v>833300</v>
+        <v>1987700</v>
       </c>
       <c r="G100" s="3">
-        <v>952000</v>
+        <v>865200</v>
       </c>
       <c r="H100" s="3">
-        <v>943800</v>
+        <v>988400</v>
       </c>
       <c r="I100" s="3">
-        <v>233900</v>
+        <v>979800</v>
       </c>
       <c r="J100" s="3">
+        <v>242800</v>
+      </c>
+      <c r="K100" s="3">
         <v>23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>244400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>92200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>142300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-6100</v>
+        <v>86300</v>
       </c>
       <c r="E102" s="3">
-        <v>4400</v>
+        <v>-6300</v>
       </c>
       <c r="F102" s="3">
-        <v>-44900</v>
+        <v>-42100</v>
       </c>
       <c r="G102" s="3">
-        <v>34700</v>
+        <v>-46600</v>
       </c>
       <c r="H102" s="3">
-        <v>87900</v>
+        <v>36100</v>
       </c>
       <c r="I102" s="3">
-        <v>-279600</v>
+        <v>91300</v>
       </c>
       <c r="J102" s="3">
+        <v>-290300</v>
+      </c>
+      <c r="K102" s="3">
         <v>319000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>270600</v>
+        <v>274900</v>
       </c>
       <c r="E8" s="3">
-        <v>391600</v>
+        <v>264200</v>
       </c>
       <c r="F8" s="3">
-        <v>451700</v>
+        <v>382300</v>
       </c>
       <c r="G8" s="3">
-        <v>209100</v>
+        <v>441000</v>
       </c>
       <c r="H8" s="3">
-        <v>196500</v>
+        <v>204100</v>
       </c>
       <c r="I8" s="3">
-        <v>174400</v>
+        <v>191800</v>
       </c>
       <c r="J8" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K8" s="3">
         <v>164500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>143000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>132400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>121600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>80700</v>
+        <v>83800</v>
       </c>
       <c r="E9" s="3">
-        <v>75300</v>
+        <v>78800</v>
       </c>
       <c r="F9" s="3">
-        <v>133100</v>
+        <v>73500</v>
       </c>
       <c r="G9" s="3">
-        <v>62900</v>
+        <v>129900</v>
       </c>
       <c r="H9" s="3">
-        <v>56800</v>
+        <v>61400</v>
       </c>
       <c r="I9" s="3">
-        <v>54500</v>
+        <v>55400</v>
       </c>
       <c r="J9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K9" s="3">
         <v>48600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>43000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46000</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>189900</v>
+        <v>191000</v>
       </c>
       <c r="E10" s="3">
-        <v>316300</v>
+        <v>185400</v>
       </c>
       <c r="F10" s="3">
-        <v>318600</v>
+        <v>308800</v>
       </c>
       <c r="G10" s="3">
-        <v>146100</v>
+        <v>311100</v>
       </c>
       <c r="H10" s="3">
-        <v>139700</v>
+        <v>142700</v>
       </c>
       <c r="I10" s="3">
-        <v>119900</v>
+        <v>136400</v>
       </c>
       <c r="J10" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K10" s="3">
         <v>115900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>81700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75600</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>9200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>6900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="E15" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="F15" s="3">
-        <v>9700</v>
+        <v>5200</v>
       </c>
       <c r="G15" s="3">
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="H15" s="3">
-        <v>7900</v>
+        <v>4600</v>
       </c>
       <c r="I15" s="3">
-        <v>10500</v>
+        <v>7700</v>
       </c>
       <c r="J15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K15" s="3">
         <v>3900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3500</v>
       </c>
       <c r="N15" s="3">
         <v>3500</v>
       </c>
       <c r="O15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P15" s="3">
         <v>4300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>193400</v>
+        <v>231000</v>
       </c>
       <c r="E17" s="3">
-        <v>86000</v>
+        <v>188900</v>
       </c>
       <c r="F17" s="3">
-        <v>-457700</v>
+        <v>84000</v>
       </c>
       <c r="G17" s="3">
-        <v>-83800</v>
+        <v>-446900</v>
       </c>
       <c r="H17" s="3">
-        <v>-9900</v>
+        <v>-81800</v>
       </c>
       <c r="I17" s="3">
-        <v>-159600</v>
+        <v>-9600</v>
       </c>
       <c r="J17" s="3">
+        <v>-155800</v>
+      </c>
+      <c r="K17" s="3">
         <v>-102900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>194800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>77200</v>
+        <v>43800</v>
       </c>
       <c r="E18" s="3">
-        <v>305500</v>
+        <v>75300</v>
       </c>
       <c r="F18" s="3">
-        <v>909500</v>
+        <v>298300</v>
       </c>
       <c r="G18" s="3">
-        <v>292900</v>
+        <v>888000</v>
       </c>
       <c r="H18" s="3">
-        <v>206400</v>
+        <v>285900</v>
       </c>
       <c r="I18" s="3">
-        <v>333900</v>
+        <v>201500</v>
       </c>
       <c r="J18" s="3">
+        <v>326000</v>
+      </c>
+      <c r="K18" s="3">
         <v>267400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>130400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>89900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-73100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,11 +1221,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1208,89 +1242,95 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>83800</v>
+        <v>49600</v>
       </c>
       <c r="E21" s="3">
-        <v>310900</v>
+        <v>81800</v>
       </c>
       <c r="F21" s="3">
-        <v>919200</v>
+        <v>303600</v>
       </c>
       <c r="G21" s="3">
-        <v>297600</v>
+        <v>897400</v>
       </c>
       <c r="H21" s="3">
-        <v>210200</v>
+        <v>290500</v>
       </c>
       <c r="I21" s="3">
-        <v>339200</v>
+        <v>205200</v>
       </c>
       <c r="J21" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K21" s="3">
         <v>271400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>89500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>133800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-69600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1307,99 +1347,108 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>77200</v>
+        <v>43900</v>
       </c>
       <c r="E23" s="3">
-        <v>305600</v>
+        <v>75400</v>
       </c>
       <c r="F23" s="3">
-        <v>909500</v>
+        <v>298400</v>
       </c>
       <c r="G23" s="3">
-        <v>292900</v>
+        <v>888000</v>
       </c>
       <c r="H23" s="3">
-        <v>206300</v>
+        <v>285900</v>
       </c>
       <c r="I23" s="3">
-        <v>333900</v>
+        <v>201400</v>
       </c>
       <c r="J23" s="3">
+        <v>326000</v>
+      </c>
+      <c r="K23" s="3">
         <v>267500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>130400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-73200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>58400</v>
-      </c>
       <c r="F24" s="3">
-        <v>156300</v>
+        <v>57000</v>
       </c>
       <c r="G24" s="3">
-        <v>66900</v>
+        <v>152600</v>
       </c>
       <c r="H24" s="3">
-        <v>53600</v>
+        <v>65300</v>
       </c>
       <c r="I24" s="3">
-        <v>92900</v>
+        <v>52300</v>
       </c>
       <c r="J24" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K24" s="3">
         <v>65200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>77300</v>
+        <v>39700</v>
       </c>
       <c r="E26" s="3">
-        <v>247200</v>
+        <v>75400</v>
       </c>
       <c r="F26" s="3">
-        <v>753200</v>
+        <v>241400</v>
       </c>
       <c r="G26" s="3">
-        <v>226000</v>
+        <v>735400</v>
       </c>
       <c r="H26" s="3">
-        <v>152700</v>
+        <v>220700</v>
       </c>
       <c r="I26" s="3">
-        <v>241100</v>
+        <v>149100</v>
       </c>
       <c r="J26" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K26" s="3">
         <v>202300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>69400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-59300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73800</v>
+        <v>36400</v>
       </c>
       <c r="E27" s="3">
-        <v>246000</v>
+        <v>72000</v>
       </c>
       <c r="F27" s="3">
-        <v>750200</v>
+        <v>240200</v>
       </c>
       <c r="G27" s="3">
-        <v>224500</v>
+        <v>732500</v>
       </c>
       <c r="H27" s="3">
-        <v>150100</v>
+        <v>219200</v>
       </c>
       <c r="I27" s="3">
-        <v>239600</v>
+        <v>146600</v>
       </c>
       <c r="J27" s="3">
+        <v>234000</v>
+      </c>
+      <c r="K27" s="3">
         <v>201200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>55000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>95600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>68800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-59900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1632,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>2500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-3200</v>
       </c>
-      <c r="F29" s="3">
-        <v>49200</v>
-      </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>48100</v>
       </c>
       <c r="H29" s="3">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>38100</v>
+        <v>22300</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-90000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>6400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-16300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,11 +1785,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1736,66 +1806,72 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76300</v>
+        <v>36400</v>
       </c>
       <c r="E33" s="3">
-        <v>242800</v>
+        <v>74500</v>
       </c>
       <c r="F33" s="3">
-        <v>799500</v>
+        <v>237000</v>
       </c>
       <c r="G33" s="3">
-        <v>224500</v>
+        <v>780500</v>
       </c>
       <c r="H33" s="3">
-        <v>173000</v>
+        <v>219200</v>
       </c>
       <c r="I33" s="3">
-        <v>277700</v>
+        <v>168900</v>
       </c>
       <c r="J33" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K33" s="3">
         <v>201200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>75100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>21700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76300</v>
+        <v>36400</v>
       </c>
       <c r="E35" s="3">
-        <v>242800</v>
+        <v>74500</v>
       </c>
       <c r="F35" s="3">
-        <v>799500</v>
+        <v>237000</v>
       </c>
       <c r="G35" s="3">
-        <v>224500</v>
+        <v>780500</v>
       </c>
       <c r="H35" s="3">
-        <v>173000</v>
+        <v>219200</v>
       </c>
       <c r="I35" s="3">
-        <v>277700</v>
+        <v>168900</v>
       </c>
       <c r="J35" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K35" s="3">
         <v>201200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>75100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>21700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>282500</v>
+        <v>192200</v>
       </c>
       <c r="E41" s="3">
-        <v>196200</v>
+        <v>275800</v>
       </c>
       <c r="F41" s="3">
-        <v>202500</v>
+        <v>191600</v>
       </c>
       <c r="G41" s="3">
-        <v>198000</v>
+        <v>197700</v>
       </c>
       <c r="H41" s="3">
-        <v>244600</v>
+        <v>193300</v>
       </c>
       <c r="I41" s="3">
-        <v>208500</v>
+        <v>238800</v>
       </c>
       <c r="J41" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K41" s="3">
         <v>117200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>392500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>42600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34500</v>
+        <v>30500</v>
       </c>
       <c r="E43" s="3">
-        <v>163800</v>
+        <v>33700</v>
       </c>
       <c r="F43" s="3">
-        <v>24300</v>
+        <v>160000</v>
       </c>
       <c r="G43" s="3">
-        <v>59000</v>
+        <v>23800</v>
       </c>
       <c r="H43" s="3">
-        <v>57500</v>
+        <v>57600</v>
       </c>
       <c r="I43" s="3">
-        <v>28000</v>
+        <v>56100</v>
       </c>
       <c r="J43" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K43" s="3">
         <v>41100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2239,246 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51900</v>
+        <v>59500</v>
       </c>
       <c r="E45" s="3">
-        <v>345600</v>
+        <v>50700</v>
       </c>
       <c r="F45" s="3">
-        <v>75100</v>
+        <v>337500</v>
       </c>
       <c r="G45" s="3">
-        <v>60600</v>
+        <v>73300</v>
       </c>
       <c r="H45" s="3">
-        <v>45600</v>
+        <v>59200</v>
       </c>
       <c r="I45" s="3">
-        <v>41600</v>
+        <v>44500</v>
       </c>
       <c r="J45" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K45" s="3">
         <v>20800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>368900</v>
+        <v>282300</v>
       </c>
       <c r="E46" s="3">
-        <v>705700</v>
+        <v>360200</v>
       </c>
       <c r="F46" s="3">
-        <v>301900</v>
+        <v>689000</v>
       </c>
       <c r="G46" s="3">
-        <v>317600</v>
+        <v>294800</v>
       </c>
       <c r="H46" s="3">
-        <v>347600</v>
+        <v>310100</v>
       </c>
       <c r="I46" s="3">
-        <v>278100</v>
+        <v>339400</v>
       </c>
       <c r="J46" s="3">
+        <v>271500</v>
+      </c>
+      <c r="K46" s="3">
         <v>179100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>470400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>122000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>111700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>81500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16381900</v>
+        <v>16185300</v>
       </c>
       <c r="E47" s="3">
-        <v>15880300</v>
+        <v>15994500</v>
       </c>
       <c r="F47" s="3">
-        <v>15016600</v>
+        <v>15504700</v>
       </c>
       <c r="G47" s="3">
-        <v>13222700</v>
+        <v>14661400</v>
       </c>
       <c r="H47" s="3">
-        <v>11825900</v>
+        <v>12910000</v>
       </c>
       <c r="I47" s="3">
-        <v>10452900</v>
+        <v>11546200</v>
       </c>
       <c r="J47" s="3">
+        <v>10205700</v>
+      </c>
+      <c r="K47" s="3">
         <v>8965200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7689900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8648300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8305700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7913000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7771300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>133900</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>130800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>124000</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>117200</v>
+        <v>121100</v>
       </c>
       <c r="I48" s="3">
-        <v>112500</v>
+        <v>114400</v>
       </c>
       <c r="J48" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K48" s="3">
         <v>113500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>59900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>56800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50900</v>
+        <v>49000</v>
       </c>
       <c r="E49" s="3">
-        <v>51700</v>
+        <v>49700</v>
       </c>
       <c r="F49" s="3">
-        <v>52400</v>
+        <v>50400</v>
       </c>
       <c r="G49" s="3">
-        <v>53200</v>
+        <v>51200</v>
       </c>
       <c r="H49" s="3">
-        <v>54000</v>
+        <v>51900</v>
       </c>
       <c r="I49" s="3">
-        <v>53900</v>
+        <v>52700</v>
       </c>
       <c r="J49" s="3">
+        <v>52700</v>
+      </c>
+      <c r="K49" s="3">
         <v>55800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>156600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>159400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>157000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>158200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>280300</v>
+        <v>412700</v>
       </c>
       <c r="E52" s="3">
-        <v>516600</v>
+        <v>273700</v>
       </c>
       <c r="F52" s="3">
-        <v>512600</v>
+        <v>504400</v>
       </c>
       <c r="G52" s="3">
-        <v>340500</v>
+        <v>500400</v>
       </c>
       <c r="H52" s="3">
-        <v>305100</v>
+        <v>332400</v>
       </c>
       <c r="I52" s="3">
-        <v>298900</v>
+        <v>297900</v>
       </c>
       <c r="J52" s="3">
+        <v>291800</v>
+      </c>
+      <c r="K52" s="3">
         <v>251300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>209000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>283800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>277300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>249700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>236300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17215900</v>
+        <v>16929200</v>
       </c>
       <c r="E54" s="3">
-        <v>17154300</v>
+        <v>16808800</v>
       </c>
       <c r="F54" s="3">
-        <v>15883500</v>
+        <v>16748600</v>
       </c>
       <c r="G54" s="3">
-        <v>14058000</v>
+        <v>15507800</v>
       </c>
       <c r="H54" s="3">
-        <v>12649800</v>
+        <v>13725600</v>
       </c>
       <c r="I54" s="3">
-        <v>11196300</v>
+        <v>12350600</v>
       </c>
       <c r="J54" s="3">
+        <v>10931500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9565000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8492300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9272800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8913900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8458000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8331700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47300</v>
+        <v>171000</v>
       </c>
       <c r="E57" s="3">
-        <v>274100</v>
+        <v>46200</v>
       </c>
       <c r="F57" s="3">
-        <v>179900</v>
+        <v>267600</v>
       </c>
       <c r="G57" s="3">
-        <v>64900</v>
+        <v>175700</v>
       </c>
       <c r="H57" s="3">
-        <v>60100</v>
+        <v>63300</v>
       </c>
       <c r="I57" s="3">
-        <v>63900</v>
+        <v>58700</v>
       </c>
       <c r="J57" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K57" s="3">
         <v>45300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>34900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>85500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>74200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1051900</v>
+        <v>1302800</v>
       </c>
       <c r="E58" s="3">
-        <v>664100</v>
+        <v>1027000</v>
       </c>
       <c r="F58" s="3">
-        <v>477500</v>
+        <v>648400</v>
       </c>
       <c r="G58" s="3">
-        <v>357400</v>
+        <v>466200</v>
       </c>
       <c r="H58" s="3">
-        <v>354900</v>
+        <v>349000</v>
       </c>
       <c r="I58" s="3">
-        <v>678600</v>
+        <v>346500</v>
       </c>
       <c r="J58" s="3">
+        <v>662600</v>
+      </c>
+      <c r="K58" s="3">
         <v>269400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>192500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>356700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>177400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>168600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>179000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271200</v>
+        <v>128200</v>
       </c>
       <c r="E59" s="3">
+        <v>264800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>186500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>109600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>180900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>175800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K59" s="3">
         <v>191000</v>
       </c>
-      <c r="F59" s="3">
-        <v>112300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>185300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>180100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>197900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>191000</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>98200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1370400</v>
+        <v>1602000</v>
       </c>
       <c r="E60" s="3">
-        <v>1129300</v>
+        <v>1338000</v>
       </c>
       <c r="F60" s="3">
-        <v>769700</v>
+        <v>1102500</v>
       </c>
       <c r="G60" s="3">
-        <v>607600</v>
+        <v>751500</v>
       </c>
       <c r="H60" s="3">
-        <v>595100</v>
+        <v>593200</v>
       </c>
       <c r="I60" s="3">
-        <v>940400</v>
+        <v>581000</v>
       </c>
       <c r="J60" s="3">
+        <v>918200</v>
+      </c>
+      <c r="K60" s="3">
         <v>505700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>368700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>553500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>397800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>352400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>334700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7270100</v>
+        <v>6759600</v>
       </c>
       <c r="E61" s="3">
-        <v>7547100</v>
+        <v>7057600</v>
       </c>
       <c r="F61" s="3">
-        <v>6961000</v>
+        <v>7329000</v>
       </c>
       <c r="G61" s="3">
-        <v>6113800</v>
+        <v>6757300</v>
       </c>
       <c r="H61" s="3">
-        <v>5458800</v>
+        <v>5929000</v>
       </c>
       <c r="I61" s="3">
-        <v>4982000</v>
+        <v>5290600</v>
       </c>
       <c r="J61" s="3">
+        <v>4825800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4879800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4809100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5538600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5536900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5293000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5225000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3325200</v>
+        <v>3438300</v>
       </c>
       <c r="E62" s="3">
-        <v>3280300</v>
+        <v>3287100</v>
       </c>
       <c r="F62" s="3">
-        <v>3155800</v>
+        <v>3242300</v>
       </c>
       <c r="G62" s="3">
-        <v>2884100</v>
+        <v>3120300</v>
       </c>
       <c r="H62" s="3">
-        <v>2363400</v>
+        <v>2856100</v>
       </c>
       <c r="I62" s="3">
-        <v>1955600</v>
+        <v>2346600</v>
       </c>
       <c r="J62" s="3">
+        <v>1947700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1401400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1038900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>927700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>805100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>755900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>731900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11975100</v>
+        <v>11805100</v>
       </c>
       <c r="E66" s="3">
-        <v>11963800</v>
+        <v>11691900</v>
       </c>
       <c r="F66" s="3">
-        <v>10894200</v>
+        <v>11680900</v>
       </c>
       <c r="G66" s="3">
-        <v>9614000</v>
+        <v>10636600</v>
       </c>
       <c r="H66" s="3">
-        <v>8427300</v>
+        <v>9386700</v>
       </c>
       <c r="I66" s="3">
-        <v>7885500</v>
+        <v>8228000</v>
       </c>
       <c r="J66" s="3">
+        <v>7699000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6795200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6225400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7030300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6750600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6411200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6301200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2265000</v>
+        <v>2224200</v>
       </c>
       <c r="E72" s="3">
-        <v>2211700</v>
+        <v>2211400</v>
       </c>
       <c r="F72" s="3">
-        <v>1990800</v>
+        <v>2159400</v>
       </c>
       <c r="G72" s="3">
-        <v>1437800</v>
+        <v>1943800</v>
       </c>
       <c r="H72" s="3">
-        <v>1235300</v>
+        <v>1403800</v>
       </c>
       <c r="I72" s="3">
-        <v>1084100</v>
+        <v>1206100</v>
       </c>
       <c r="J72" s="3">
+        <v>1058500</v>
+      </c>
+      <c r="K72" s="3">
         <v>823600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>615300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>644900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>560800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>487400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>478100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5240800</v>
+        <v>5124200</v>
       </c>
       <c r="E76" s="3">
-        <v>5190400</v>
+        <v>5116800</v>
       </c>
       <c r="F76" s="3">
-        <v>4989300</v>
+        <v>5067700</v>
       </c>
       <c r="G76" s="3">
-        <v>4444000</v>
+        <v>4871300</v>
       </c>
       <c r="H76" s="3">
-        <v>4222500</v>
+        <v>4338900</v>
       </c>
       <c r="I76" s="3">
-        <v>3310800</v>
+        <v>4122600</v>
       </c>
       <c r="J76" s="3">
+        <v>3232500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2769900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2266900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2242400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2163300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2046800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2030500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76300</v>
+        <v>36400</v>
       </c>
       <c r="E81" s="3">
-        <v>242800</v>
+        <v>74500</v>
       </c>
       <c r="F81" s="3">
-        <v>799500</v>
+        <v>237000</v>
       </c>
       <c r="G81" s="3">
-        <v>224500</v>
+        <v>780500</v>
       </c>
       <c r="H81" s="3">
-        <v>173000</v>
+        <v>219200</v>
       </c>
       <c r="I81" s="3">
-        <v>277700</v>
+        <v>168900</v>
       </c>
       <c r="J81" s="3">
+        <v>271100</v>
+      </c>
+      <c r="K81" s="3">
         <v>201200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>75100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>21700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6600</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="F83" s="3">
-        <v>9700</v>
+        <v>5200</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>9400</v>
       </c>
       <c r="H83" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
-        <v>5300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3500</v>
       </c>
       <c r="N83" s="3">
         <v>3500</v>
@@ -3670,10 +3869,13 @@
         <v>3500</v>
       </c>
       <c r="P83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30600</v>
+        <v>23100</v>
       </c>
       <c r="E89" s="3">
-        <v>148100</v>
+        <v>29900</v>
       </c>
       <c r="F89" s="3">
-        <v>195000</v>
+        <v>144600</v>
       </c>
       <c r="G89" s="3">
-        <v>53500</v>
+        <v>190400</v>
       </c>
       <c r="H89" s="3">
+        <v>52200</v>
+      </c>
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
-        <v>88700</v>
-      </c>
       <c r="J89" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K89" s="3">
         <v>57900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12700</v>
+        <v>-6000</v>
       </c>
       <c r="E91" s="3">
-        <v>-10300</v>
+        <v>-9200</v>
       </c>
       <c r="F91" s="3">
-        <v>-26700</v>
+        <v>-7500</v>
       </c>
       <c r="G91" s="3">
-        <v>-12100</v>
+        <v>-10600</v>
       </c>
       <c r="H91" s="3">
-        <v>-10500</v>
+        <v>-8800</v>
       </c>
       <c r="I91" s="3">
-        <v>-10100</v>
+        <v>-7600</v>
       </c>
       <c r="J91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-113200</v>
+        <v>-175100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1009100</v>
+        <v>-110500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2224700</v>
+        <v>-985300</v>
       </c>
       <c r="G94" s="3">
-        <v>-965300</v>
+        <v>-2172100</v>
       </c>
       <c r="H94" s="3">
-        <v>-953200</v>
+        <v>-942500</v>
       </c>
       <c r="I94" s="3">
-        <v>-970100</v>
+        <v>-930600</v>
       </c>
       <c r="J94" s="3">
+        <v>-947200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-591000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>279700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-263100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-124200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-129100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3100</v>
+        <v>-16800</v>
       </c>
       <c r="E96" s="3">
-        <v>-9400</v>
+        <v>-3000</v>
       </c>
       <c r="F96" s="3">
-        <v>-39100</v>
+        <v>-9200</v>
       </c>
       <c r="G96" s="3">
-        <v>-16700</v>
+        <v>-38200</v>
       </c>
       <c r="H96" s="3">
-        <v>-51500</v>
+        <v>-16300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-50300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-33700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>168700</v>
+        <v>68400</v>
       </c>
       <c r="E100" s="3">
-        <v>855100</v>
+        <v>164700</v>
       </c>
       <c r="F100" s="3">
-        <v>1987700</v>
+        <v>834900</v>
       </c>
       <c r="G100" s="3">
-        <v>865200</v>
+        <v>1940700</v>
       </c>
       <c r="H100" s="3">
-        <v>988400</v>
+        <v>844700</v>
       </c>
       <c r="I100" s="3">
-        <v>979800</v>
+        <v>965000</v>
       </c>
       <c r="J100" s="3">
+        <v>956700</v>
+      </c>
+      <c r="K100" s="3">
         <v>242800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>244400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>92200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>142300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86300</v>
+        <v>-83600</v>
       </c>
       <c r="E102" s="3">
-        <v>-6300</v>
+        <v>84200</v>
       </c>
       <c r="F102" s="3">
-        <v>-42100</v>
+        <v>-6100</v>
       </c>
       <c r="G102" s="3">
-        <v>-46600</v>
+        <v>-41100</v>
       </c>
       <c r="H102" s="3">
-        <v>36100</v>
+        <v>-45500</v>
       </c>
       <c r="I102" s="3">
-        <v>91300</v>
+        <v>35200</v>
       </c>
       <c r="J102" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-290300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>319000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>56400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>274900</v>
+        <v>281200</v>
       </c>
       <c r="E8" s="3">
-        <v>264200</v>
+        <v>275000</v>
       </c>
       <c r="F8" s="3">
-        <v>382300</v>
+        <v>264300</v>
       </c>
       <c r="G8" s="3">
-        <v>441000</v>
+        <v>382500</v>
       </c>
       <c r="H8" s="3">
-        <v>204100</v>
+        <v>441300</v>
       </c>
       <c r="I8" s="3">
-        <v>191800</v>
+        <v>204200</v>
       </c>
       <c r="J8" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K8" s="3">
         <v>170200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>143000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>132400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>121600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>83800</v>
+        <v>87800</v>
       </c>
       <c r="E9" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F9" s="3">
         <v>78800</v>
       </c>
-      <c r="F9" s="3">
-        <v>73500</v>
-      </c>
       <c r="G9" s="3">
-        <v>129900</v>
+        <v>73600</v>
       </c>
       <c r="H9" s="3">
-        <v>61400</v>
+        <v>130000</v>
       </c>
       <c r="I9" s="3">
+        <v>61500</v>
+      </c>
+      <c r="J9" s="3">
         <v>55400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>43000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46000</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>191000</v>
+        <v>193400</v>
       </c>
       <c r="E10" s="3">
-        <v>185400</v>
+        <v>191100</v>
       </c>
       <c r="F10" s="3">
-        <v>308800</v>
+        <v>185500</v>
       </c>
       <c r="G10" s="3">
-        <v>311100</v>
+        <v>309000</v>
       </c>
       <c r="H10" s="3">
+        <v>311300</v>
+      </c>
+      <c r="I10" s="3">
         <v>142700</v>
       </c>
-      <c r="I10" s="3">
-        <v>136400</v>
-      </c>
       <c r="J10" s="3">
+        <v>136500</v>
+      </c>
+      <c r="K10" s="3">
         <v>117000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>81700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75600</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>9200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>6900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,46 +1068,49 @@
         <v>5800</v>
       </c>
       <c r="E15" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F15" s="3">
         <v>6400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>4600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3500</v>
       </c>
       <c r="O15" s="3">
         <v>3500</v>
       </c>
       <c r="P15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>231000</v>
+        <v>200600</v>
       </c>
       <c r="E17" s="3">
-        <v>188900</v>
+        <v>231100</v>
       </c>
       <c r="F17" s="3">
+        <v>189000</v>
+      </c>
+      <c r="G17" s="3">
         <v>84000</v>
       </c>
-      <c r="G17" s="3">
-        <v>-446900</v>
-      </c>
       <c r="H17" s="3">
-        <v>-81800</v>
+        <v>-447100</v>
       </c>
       <c r="I17" s="3">
+        <v>-81900</v>
+      </c>
+      <c r="J17" s="3">
         <v>-9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-155800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-102900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>57100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>78100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>194800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43800</v>
+        <v>80600</v>
       </c>
       <c r="E18" s="3">
-        <v>75300</v>
+        <v>43900</v>
       </c>
       <c r="F18" s="3">
-        <v>298300</v>
+        <v>75400</v>
       </c>
       <c r="G18" s="3">
-        <v>888000</v>
+        <v>298500</v>
       </c>
       <c r="H18" s="3">
-        <v>285900</v>
+        <v>888400</v>
       </c>
       <c r="I18" s="3">
-        <v>201500</v>
+        <v>286100</v>
       </c>
       <c r="J18" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K18" s="3">
         <v>326000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>267400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>130400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>89900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>48400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,11 +1258,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1245,69 +1279,75 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>49600</v>
+        <v>86400</v>
       </c>
       <c r="E21" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F21" s="3">
         <v>81800</v>
       </c>
-      <c r="F21" s="3">
-        <v>303600</v>
-      </c>
       <c r="G21" s="3">
-        <v>897400</v>
+        <v>303700</v>
       </c>
       <c r="H21" s="3">
-        <v>290500</v>
+        <v>897900</v>
       </c>
       <c r="I21" s="3">
-        <v>205200</v>
+        <v>290700</v>
       </c>
       <c r="J21" s="3">
+        <v>205400</v>
+      </c>
+      <c r="K21" s="3">
         <v>331200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>271400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>89500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>133800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>93400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>52000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,8 +1372,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1350,105 +1390,114 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E23" s="3">
         <v>43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75400</v>
       </c>
-      <c r="F23" s="3">
-        <v>298400</v>
-      </c>
       <c r="G23" s="3">
-        <v>888000</v>
+        <v>298500</v>
       </c>
       <c r="H23" s="3">
-        <v>285900</v>
+        <v>888400</v>
       </c>
       <c r="I23" s="3">
-        <v>201400</v>
+        <v>286100</v>
       </c>
       <c r="J23" s="3">
+        <v>201500</v>
+      </c>
+      <c r="K23" s="3">
         <v>326000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>267500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>130400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-73200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E24" s="3">
         <v>4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>57000</v>
       </c>
-      <c r="G24" s="3">
-        <v>152600</v>
-      </c>
       <c r="H24" s="3">
+        <v>152700</v>
+      </c>
+      <c r="I24" s="3">
         <v>65300</v>
       </c>
-      <c r="I24" s="3">
-        <v>52300</v>
-      </c>
       <c r="J24" s="3">
+        <v>52400</v>
+      </c>
+      <c r="K24" s="3">
         <v>90700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>65200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E26" s="3">
         <v>39700</v>
       </c>
-      <c r="E26" s="3">
-        <v>75400</v>
-      </c>
       <c r="F26" s="3">
-        <v>241400</v>
+        <v>75500</v>
       </c>
       <c r="G26" s="3">
-        <v>735400</v>
+        <v>241500</v>
       </c>
       <c r="H26" s="3">
-        <v>220700</v>
+        <v>735700</v>
       </c>
       <c r="I26" s="3">
-        <v>149100</v>
+        <v>220800</v>
       </c>
       <c r="J26" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K26" s="3">
         <v>235400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>202300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E27" s="3">
         <v>36400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72000</v>
       </c>
-      <c r="F27" s="3">
-        <v>240200</v>
-      </c>
       <c r="G27" s="3">
-        <v>732500</v>
+        <v>240300</v>
       </c>
       <c r="H27" s="3">
-        <v>219200</v>
+        <v>732800</v>
       </c>
       <c r="I27" s="3">
-        <v>146600</v>
+        <v>219300</v>
       </c>
       <c r="J27" s="3">
+        <v>146700</v>
+      </c>
+      <c r="K27" s="3">
         <v>234000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>201200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>55000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>95600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1644,46 +1705,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>48100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>22300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>37200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-90000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>6400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-16300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,11 +1858,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1809,69 +1879,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E33" s="3">
         <v>36400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>74500</v>
       </c>
-      <c r="F33" s="3">
-        <v>237000</v>
-      </c>
       <c r="G33" s="3">
-        <v>780500</v>
+        <v>237200</v>
       </c>
       <c r="H33" s="3">
-        <v>219200</v>
+        <v>781000</v>
       </c>
       <c r="I33" s="3">
-        <v>168900</v>
+        <v>219300</v>
       </c>
       <c r="J33" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K33" s="3">
         <v>271100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>201200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>75100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>21700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E35" s="3">
         <v>36400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>74500</v>
       </c>
-      <c r="F35" s="3">
-        <v>237000</v>
-      </c>
       <c r="G35" s="3">
-        <v>780500</v>
+        <v>237200</v>
       </c>
       <c r="H35" s="3">
-        <v>219200</v>
+        <v>781000</v>
       </c>
       <c r="I35" s="3">
-        <v>168900</v>
+        <v>219300</v>
       </c>
       <c r="J35" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K35" s="3">
         <v>271100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>201200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>75100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>21700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192200</v>
+        <v>162600</v>
       </c>
       <c r="E41" s="3">
-        <v>275800</v>
+        <v>192300</v>
       </c>
       <c r="F41" s="3">
-        <v>191600</v>
+        <v>276000</v>
       </c>
       <c r="G41" s="3">
-        <v>197700</v>
+        <v>191700</v>
       </c>
       <c r="H41" s="3">
-        <v>193300</v>
+        <v>197800</v>
       </c>
       <c r="I41" s="3">
-        <v>238800</v>
+        <v>193400</v>
       </c>
       <c r="J41" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K41" s="3">
         <v>203600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>117200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>392500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>42600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>67700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30500</v>
+        <v>34200</v>
       </c>
       <c r="E43" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F43" s="3">
         <v>33700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>160000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23800</v>
       </c>
-      <c r="H43" s="3">
-        <v>57600</v>
-      </c>
       <c r="I43" s="3">
-        <v>56100</v>
+        <v>57700</v>
       </c>
       <c r="J43" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K43" s="3">
         <v>27400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,243 +2338,261 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E45" s="3">
         <v>59500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>50700</v>
       </c>
-      <c r="F45" s="3">
-        <v>337500</v>
-      </c>
       <c r="G45" s="3">
+        <v>337600</v>
+      </c>
+      <c r="H45" s="3">
         <v>73300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>282300</v>
+        <v>240400</v>
       </c>
       <c r="E46" s="3">
-        <v>360200</v>
+        <v>282400</v>
       </c>
       <c r="F46" s="3">
-        <v>689000</v>
+        <v>360400</v>
       </c>
       <c r="G46" s="3">
-        <v>294800</v>
+        <v>689400</v>
       </c>
       <c r="H46" s="3">
-        <v>310100</v>
+        <v>294900</v>
       </c>
       <c r="I46" s="3">
-        <v>339400</v>
+        <v>310300</v>
       </c>
       <c r="J46" s="3">
+        <v>339600</v>
+      </c>
+      <c r="K46" s="3">
         <v>271500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>470400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>122000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>111700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>81500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>109900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16185300</v>
+        <v>16713700</v>
       </c>
       <c r="E47" s="3">
-        <v>15994500</v>
+        <v>16193700</v>
       </c>
       <c r="F47" s="3">
-        <v>15504700</v>
+        <v>16002800</v>
       </c>
       <c r="G47" s="3">
-        <v>14661400</v>
+        <v>15512800</v>
       </c>
       <c r="H47" s="3">
-        <v>12910000</v>
+        <v>14669000</v>
       </c>
       <c r="I47" s="3">
-        <v>11546200</v>
+        <v>12916700</v>
       </c>
       <c r="J47" s="3">
+        <v>11552200</v>
+      </c>
+      <c r="K47" s="3">
         <v>10205700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8965200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7689900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8648300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8305700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7913000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7771300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>130800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>121100</v>
       </c>
-      <c r="I48" s="3">
-        <v>114400</v>
-      </c>
       <c r="J48" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K48" s="3">
         <v>109800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>113500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>56800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48400</v>
+      </c>
+      <c r="E49" s="3">
         <v>49000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>49700</v>
       </c>
-      <c r="F49" s="3">
-        <v>50400</v>
-      </c>
       <c r="G49" s="3">
+        <v>50500</v>
+      </c>
+      <c r="H49" s="3">
         <v>51200</v>
       </c>
-      <c r="H49" s="3">
-        <v>51900</v>
-      </c>
       <c r="I49" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="J49" s="3">
         <v>52700</v>
       </c>
       <c r="K49" s="3">
+        <v>52700</v>
+      </c>
+      <c r="L49" s="3">
         <v>55800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>156600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>159400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>157000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>158200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412700</v>
+        <v>467700</v>
       </c>
       <c r="E52" s="3">
-        <v>273700</v>
+        <v>412900</v>
       </c>
       <c r="F52" s="3">
-        <v>504400</v>
+        <v>273800</v>
       </c>
       <c r="G52" s="3">
-        <v>500400</v>
+        <v>504600</v>
       </c>
       <c r="H52" s="3">
-        <v>332400</v>
+        <v>500700</v>
       </c>
       <c r="I52" s="3">
-        <v>297900</v>
+        <v>332600</v>
       </c>
       <c r="J52" s="3">
+        <v>298000</v>
+      </c>
+      <c r="K52" s="3">
         <v>291800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>251300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>209000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>283800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>277300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>249700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>236300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16929200</v>
+        <v>17470200</v>
       </c>
       <c r="E54" s="3">
-        <v>16808800</v>
+        <v>16938000</v>
       </c>
       <c r="F54" s="3">
-        <v>16748600</v>
+        <v>16817500</v>
       </c>
       <c r="G54" s="3">
-        <v>15507800</v>
+        <v>16757300</v>
       </c>
       <c r="H54" s="3">
-        <v>13725600</v>
+        <v>15515900</v>
       </c>
       <c r="I54" s="3">
-        <v>12350600</v>
+        <v>13732700</v>
       </c>
       <c r="J54" s="3">
+        <v>12357000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10931500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9565000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8492300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9272800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8913900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8458000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8331700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171000</v>
+        <v>207500</v>
       </c>
       <c r="E57" s="3">
+        <v>171100</v>
+      </c>
+      <c r="F57" s="3">
         <v>46200</v>
       </c>
-      <c r="F57" s="3">
-        <v>267600</v>
-      </c>
       <c r="G57" s="3">
-        <v>175700</v>
+        <v>267700</v>
       </c>
       <c r="H57" s="3">
-        <v>63300</v>
+        <v>175800</v>
       </c>
       <c r="I57" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J57" s="3">
         <v>58700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>34900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>85500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>74200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1302800</v>
+        <v>1082700</v>
       </c>
       <c r="E58" s="3">
-        <v>1027000</v>
+        <v>1303400</v>
       </c>
       <c r="F58" s="3">
-        <v>648400</v>
+        <v>1027500</v>
       </c>
       <c r="G58" s="3">
-        <v>466200</v>
+        <v>648800</v>
       </c>
       <c r="H58" s="3">
-        <v>349000</v>
+        <v>466400</v>
       </c>
       <c r="I58" s="3">
-        <v>346500</v>
+        <v>349200</v>
       </c>
       <c r="J58" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K58" s="3">
         <v>662600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>269400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>192500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>356700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>177400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>168600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>179000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E59" s="3">
         <v>128200</v>
       </c>
-      <c r="E59" s="3">
-        <v>264800</v>
-      </c>
       <c r="F59" s="3">
-        <v>186500</v>
+        <v>265000</v>
       </c>
       <c r="G59" s="3">
-        <v>109600</v>
+        <v>186600</v>
       </c>
       <c r="H59" s="3">
-        <v>180900</v>
+        <v>109700</v>
       </c>
       <c r="I59" s="3">
-        <v>175800</v>
+        <v>181000</v>
       </c>
       <c r="J59" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K59" s="3">
         <v>193200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>98200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1602000</v>
+        <v>1416900</v>
       </c>
       <c r="E60" s="3">
-        <v>1338000</v>
+        <v>1602800</v>
       </c>
       <c r="F60" s="3">
-        <v>1102500</v>
+        <v>1338700</v>
       </c>
       <c r="G60" s="3">
-        <v>751500</v>
+        <v>1103100</v>
       </c>
       <c r="H60" s="3">
-        <v>593200</v>
+        <v>751900</v>
       </c>
       <c r="I60" s="3">
-        <v>581000</v>
+        <v>593500</v>
       </c>
       <c r="J60" s="3">
+        <v>581300</v>
+      </c>
+      <c r="K60" s="3">
         <v>918200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>505700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>368700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>553500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>397800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>352400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>334700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6759600</v>
+        <v>7139200</v>
       </c>
       <c r="E61" s="3">
-        <v>7057600</v>
+        <v>6763100</v>
       </c>
       <c r="F61" s="3">
-        <v>7329000</v>
+        <v>7061300</v>
       </c>
       <c r="G61" s="3">
-        <v>6757300</v>
+        <v>7332800</v>
       </c>
       <c r="H61" s="3">
-        <v>5929000</v>
+        <v>6760800</v>
       </c>
       <c r="I61" s="3">
-        <v>5290600</v>
+        <v>5932100</v>
       </c>
       <c r="J61" s="3">
+        <v>5293400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4825800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4879800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4809100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5538600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5536900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5293000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5225000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3438300</v>
+        <v>3729400</v>
       </c>
       <c r="E62" s="3">
-        <v>3287100</v>
+        <v>3440100</v>
       </c>
       <c r="F62" s="3">
-        <v>3242300</v>
+        <v>3288800</v>
       </c>
       <c r="G62" s="3">
-        <v>3120300</v>
+        <v>3244000</v>
       </c>
       <c r="H62" s="3">
-        <v>2856100</v>
+        <v>3121900</v>
       </c>
       <c r="I62" s="3">
-        <v>2346600</v>
+        <v>2857500</v>
       </c>
       <c r="J62" s="3">
+        <v>2347800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1947700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1401400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1038900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>927700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>805100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>755900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>731900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11805100</v>
+        <v>12291900</v>
       </c>
       <c r="E66" s="3">
-        <v>11691900</v>
+        <v>11811200</v>
       </c>
       <c r="F66" s="3">
-        <v>11680900</v>
+        <v>11698000</v>
       </c>
       <c r="G66" s="3">
-        <v>10636600</v>
+        <v>11687000</v>
       </c>
       <c r="H66" s="3">
-        <v>9386700</v>
+        <v>10642100</v>
       </c>
       <c r="I66" s="3">
-        <v>8228000</v>
+        <v>9391500</v>
       </c>
       <c r="J66" s="3">
+        <v>8232300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7699000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6795200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6225400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7030300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6750600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6411200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6301200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2224200</v>
+        <v>2265200</v>
       </c>
       <c r="E72" s="3">
-        <v>2211400</v>
+        <v>2225400</v>
       </c>
       <c r="F72" s="3">
-        <v>2159400</v>
+        <v>2212500</v>
       </c>
       <c r="G72" s="3">
-        <v>1943800</v>
+        <v>2160500</v>
       </c>
       <c r="H72" s="3">
-        <v>1403800</v>
+        <v>1944800</v>
       </c>
       <c r="I72" s="3">
-        <v>1206100</v>
+        <v>1404500</v>
       </c>
       <c r="J72" s="3">
+        <v>1206700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1058500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>823600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>615300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>644900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>560800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>487400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>478100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5124200</v>
+        <v>5178300</v>
       </c>
       <c r="E76" s="3">
-        <v>5116800</v>
+        <v>5126800</v>
       </c>
       <c r="F76" s="3">
-        <v>5067700</v>
+        <v>5119500</v>
       </c>
       <c r="G76" s="3">
-        <v>4871300</v>
+        <v>5070300</v>
       </c>
       <c r="H76" s="3">
-        <v>4338900</v>
+        <v>4873800</v>
       </c>
       <c r="I76" s="3">
-        <v>4122600</v>
+        <v>4341200</v>
       </c>
       <c r="J76" s="3">
+        <v>4124800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3232500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2769900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2266900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2242400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2163300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2046800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2030500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E81" s="3">
         <v>36400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>74500</v>
       </c>
-      <c r="F81" s="3">
-        <v>237000</v>
-      </c>
       <c r="G81" s="3">
-        <v>780500</v>
+        <v>237200</v>
       </c>
       <c r="H81" s="3">
-        <v>219200</v>
+        <v>781000</v>
       </c>
       <c r="I81" s="3">
-        <v>168900</v>
+        <v>219300</v>
       </c>
       <c r="J81" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K81" s="3">
         <v>271100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>201200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>75100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>21700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,34 +4035,34 @@
         <v>5800</v>
       </c>
       <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3500</v>
       </c>
       <c r="O83" s="3">
         <v>3500</v>
@@ -3872,10 +4071,13 @@
         <v>3500</v>
       </c>
       <c r="Q83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E89" s="3">
         <v>23100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29900</v>
       </c>
-      <c r="F89" s="3">
-        <v>144600</v>
-      </c>
       <c r="G89" s="3">
-        <v>190400</v>
+        <v>144700</v>
       </c>
       <c r="H89" s="3">
+        <v>190500</v>
+      </c>
+      <c r="I89" s="3">
         <v>52200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-175100</v>
+        <v>-336000</v>
       </c>
       <c r="E94" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-110500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-985300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-2172100</v>
+        <v>-985800</v>
       </c>
       <c r="H94" s="3">
-        <v>-942500</v>
+        <v>-2173200</v>
       </c>
       <c r="I94" s="3">
-        <v>-930600</v>
+        <v>-943000</v>
       </c>
       <c r="J94" s="3">
+        <v>-931100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-947200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-591000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>279700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-263100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-124200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-9200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-38200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-16300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-50300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>228300</v>
+      </c>
+      <c r="E100" s="3">
         <v>68400</v>
       </c>
-      <c r="E100" s="3">
-        <v>164700</v>
-      </c>
       <c r="F100" s="3">
-        <v>834900</v>
+        <v>164800</v>
       </c>
       <c r="G100" s="3">
-        <v>1940700</v>
+        <v>835300</v>
       </c>
       <c r="H100" s="3">
-        <v>844700</v>
+        <v>1941700</v>
       </c>
       <c r="I100" s="3">
-        <v>965000</v>
+        <v>845200</v>
       </c>
       <c r="J100" s="3">
+        <v>965500</v>
+      </c>
+      <c r="K100" s="3">
         <v>956700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>242800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>244400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>92200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>142300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-83600</v>
       </c>
-      <c r="E102" s="3">
-        <v>84200</v>
-      </c>
       <c r="F102" s="3">
+        <v>84300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45500</v>
       </c>
-      <c r="I102" s="3">
-        <v>35200</v>
-      </c>
       <c r="J102" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K102" s="3">
         <v>89100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-290300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>319000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-25100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>56400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TCN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>TCN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>281200</v>
+        <v>290900</v>
       </c>
       <c r="E8" s="3">
-        <v>275000</v>
+        <v>286400</v>
       </c>
       <c r="F8" s="3">
-        <v>264300</v>
+        <v>280100</v>
       </c>
       <c r="G8" s="3">
-        <v>382500</v>
+        <v>269200</v>
       </c>
       <c r="H8" s="3">
-        <v>441300</v>
+        <v>389500</v>
       </c>
       <c r="I8" s="3">
-        <v>204200</v>
+        <v>449400</v>
       </c>
       <c r="J8" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K8" s="3">
         <v>191900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>170200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>164500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>143000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>132400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>121600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87800</v>
+        <v>92600</v>
       </c>
       <c r="E9" s="3">
-        <v>83900</v>
+        <v>89400</v>
       </c>
       <c r="F9" s="3">
-        <v>78800</v>
+        <v>85400</v>
       </c>
       <c r="G9" s="3">
-        <v>73600</v>
+        <v>80300</v>
       </c>
       <c r="H9" s="3">
-        <v>130000</v>
+        <v>74900</v>
       </c>
       <c r="I9" s="3">
-        <v>61500</v>
+        <v>132400</v>
       </c>
       <c r="J9" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K9" s="3">
         <v>55400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>47200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>46000</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>193400</v>
+        <v>198300</v>
       </c>
       <c r="E10" s="3">
-        <v>191100</v>
+        <v>197000</v>
       </c>
       <c r="F10" s="3">
-        <v>185500</v>
+        <v>194600</v>
       </c>
       <c r="G10" s="3">
-        <v>309000</v>
+        <v>188900</v>
       </c>
       <c r="H10" s="3">
-        <v>311300</v>
+        <v>314600</v>
       </c>
       <c r="I10" s="3">
-        <v>142700</v>
+        <v>317000</v>
       </c>
       <c r="J10" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K10" s="3">
         <v>136500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>117000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75600</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>-1800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>9400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>6900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F15" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="G15" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="H15" s="3">
-        <v>9400</v>
+        <v>5300</v>
       </c>
       <c r="I15" s="3">
-        <v>4600</v>
+        <v>9600</v>
       </c>
       <c r="J15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K15" s="3">
         <v>7700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3500</v>
       </c>
       <c r="P15" s="3">
         <v>3500</v>
       </c>
       <c r="Q15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R15" s="3">
         <v>4300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200600</v>
+        <v>166100</v>
       </c>
       <c r="E17" s="3">
-        <v>231100</v>
+        <v>204300</v>
       </c>
       <c r="F17" s="3">
-        <v>189000</v>
+        <v>235400</v>
       </c>
       <c r="G17" s="3">
-        <v>84000</v>
+        <v>192400</v>
       </c>
       <c r="H17" s="3">
-        <v>-447100</v>
+        <v>85600</v>
       </c>
       <c r="I17" s="3">
-        <v>-81900</v>
+        <v>-455300</v>
       </c>
       <c r="J17" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K17" s="3">
         <v>-9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-155800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-102900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>57100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>78100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>194800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>80600</v>
+        <v>124800</v>
       </c>
       <c r="E18" s="3">
-        <v>43900</v>
+        <v>82100</v>
       </c>
       <c r="F18" s="3">
-        <v>75400</v>
+        <v>44700</v>
       </c>
       <c r="G18" s="3">
-        <v>298500</v>
+        <v>76800</v>
       </c>
       <c r="H18" s="3">
-        <v>888400</v>
+        <v>303900</v>
       </c>
       <c r="I18" s="3">
-        <v>286100</v>
+        <v>904700</v>
       </c>
       <c r="J18" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K18" s="3">
         <v>201600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>326000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>267400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>130400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>89900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>48400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-73100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1261,11 +1295,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1282,72 +1316,78 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>77800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>86400</v>
+        <v>131100</v>
       </c>
       <c r="E21" s="3">
-        <v>49700</v>
+        <v>88000</v>
       </c>
       <c r="F21" s="3">
-        <v>81800</v>
+        <v>50600</v>
       </c>
       <c r="G21" s="3">
-        <v>303700</v>
+        <v>83300</v>
       </c>
       <c r="H21" s="3">
-        <v>897900</v>
+        <v>309300</v>
       </c>
       <c r="I21" s="3">
-        <v>290700</v>
+        <v>914400</v>
       </c>
       <c r="J21" s="3">
+        <v>296000</v>
+      </c>
+      <c r="K21" s="3">
         <v>205400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>331200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>271400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>89500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>133800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>52000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-69600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1375,8 +1415,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1393,111 +1433,120 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80600</v>
+        <v>124900</v>
       </c>
       <c r="E23" s="3">
-        <v>43900</v>
+        <v>82100</v>
       </c>
       <c r="F23" s="3">
-        <v>75400</v>
+        <v>44700</v>
       </c>
       <c r="G23" s="3">
-        <v>298500</v>
+        <v>76800</v>
       </c>
       <c r="H23" s="3">
-        <v>888400</v>
+        <v>304000</v>
       </c>
       <c r="I23" s="3">
-        <v>286100</v>
+        <v>904800</v>
       </c>
       <c r="J23" s="3">
+        <v>291300</v>
+      </c>
+      <c r="K23" s="3">
         <v>201500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>326000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>267500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>86000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>130400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-73200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>58500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17400</v>
+        <v>13300</v>
       </c>
       <c r="E24" s="3">
-        <v>4200</v>
+        <v>17800</v>
       </c>
       <c r="F24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>57000</v>
-      </c>
       <c r="H24" s="3">
-        <v>152700</v>
+        <v>58100</v>
       </c>
       <c r="I24" s="3">
-        <v>65300</v>
+        <v>155500</v>
       </c>
       <c r="J24" s="3">
+        <v>66500</v>
+      </c>
+      <c r="K24" s="3">
         <v>52400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>90700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63200</v>
+        <v>111600</v>
       </c>
       <c r="E26" s="3">
-        <v>39700</v>
+        <v>64300</v>
       </c>
       <c r="F26" s="3">
-        <v>75500</v>
+        <v>40400</v>
       </c>
       <c r="G26" s="3">
-        <v>241500</v>
+        <v>76900</v>
       </c>
       <c r="H26" s="3">
-        <v>735700</v>
+        <v>245900</v>
       </c>
       <c r="I26" s="3">
-        <v>220800</v>
+        <v>749200</v>
       </c>
       <c r="J26" s="3">
+        <v>224800</v>
+      </c>
+      <c r="K26" s="3">
         <v>149200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>235400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>202300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-59300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>61200</v>
+        <v>110300</v>
       </c>
       <c r="E27" s="3">
-        <v>36400</v>
+        <v>62400</v>
       </c>
       <c r="F27" s="3">
-        <v>72000</v>
+        <v>37100</v>
       </c>
       <c r="G27" s="3">
-        <v>240300</v>
+        <v>73400</v>
       </c>
       <c r="H27" s="3">
-        <v>732800</v>
+        <v>244700</v>
       </c>
       <c r="I27" s="3">
-        <v>219300</v>
+        <v>746300</v>
       </c>
       <c r="J27" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K27" s="3">
         <v>146700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>201200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>55000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>95600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-59900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,46 +1769,49 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3200</v>
       </c>
-      <c r="H29" s="3">
-        <v>48100</v>
-      </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>22300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>37200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-90000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>6400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>7700</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1861,11 +1931,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1882,72 +1952,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-77800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>61200</v>
+        <v>110300</v>
       </c>
       <c r="E33" s="3">
-        <v>36400</v>
+        <v>62400</v>
       </c>
       <c r="F33" s="3">
-        <v>74500</v>
+        <v>37100</v>
       </c>
       <c r="G33" s="3">
-        <v>237200</v>
+        <v>75900</v>
       </c>
       <c r="H33" s="3">
-        <v>781000</v>
+        <v>241500</v>
       </c>
       <c r="I33" s="3">
-        <v>219300</v>
+        <v>795300</v>
       </c>
       <c r="J33" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K33" s="3">
         <v>169000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>271100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>201200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>75100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-52200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>61200</v>
+        <v>110300</v>
       </c>
       <c r="E35" s="3">
-        <v>36400</v>
+        <v>62400</v>
       </c>
       <c r="F35" s="3">
-        <v>74500</v>
+        <v>37100</v>
       </c>
       <c r="G35" s="3">
-        <v>237200</v>
+        <v>75900</v>
       </c>
       <c r="H35" s="3">
-        <v>781000</v>
+        <v>241500</v>
       </c>
       <c r="I35" s="3">
-        <v>219300</v>
+        <v>795300</v>
       </c>
       <c r="J35" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K35" s="3">
         <v>169000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>271100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>201200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>75100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-52200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162600</v>
+        <v>237700</v>
       </c>
       <c r="E41" s="3">
-        <v>192300</v>
+        <v>165600</v>
       </c>
       <c r="F41" s="3">
-        <v>276000</v>
+        <v>195800</v>
       </c>
       <c r="G41" s="3">
-        <v>191700</v>
+        <v>281000</v>
       </c>
       <c r="H41" s="3">
-        <v>197800</v>
+        <v>195200</v>
       </c>
       <c r="I41" s="3">
-        <v>193400</v>
+        <v>201500</v>
       </c>
       <c r="J41" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K41" s="3">
         <v>238900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>203600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>117200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>392500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>67700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34200</v>
+        <v>53200</v>
       </c>
       <c r="E43" s="3">
-        <v>30600</v>
+        <v>34800</v>
       </c>
       <c r="F43" s="3">
-        <v>33700</v>
+        <v>31100</v>
       </c>
       <c r="G43" s="3">
-        <v>160000</v>
+        <v>34400</v>
       </c>
       <c r="H43" s="3">
-        <v>23800</v>
+        <v>163000</v>
       </c>
       <c r="I43" s="3">
-        <v>57700</v>
+        <v>24200</v>
       </c>
       <c r="J43" s="3">
+        <v>58700</v>
+      </c>
+      <c r="K43" s="3">
         <v>56200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>28200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,158 +2437,170 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43600</v>
+        <v>32100</v>
       </c>
       <c r="E45" s="3">
-        <v>59500</v>
+        <v>44400</v>
       </c>
       <c r="F45" s="3">
-        <v>50700</v>
+        <v>60600</v>
       </c>
       <c r="G45" s="3">
-        <v>337600</v>
+        <v>51600</v>
       </c>
       <c r="H45" s="3">
-        <v>73300</v>
+        <v>343800</v>
       </c>
       <c r="I45" s="3">
-        <v>59200</v>
+        <v>74700</v>
       </c>
       <c r="J45" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K45" s="3">
         <v>44500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>240400</v>
+        <v>323000</v>
       </c>
       <c r="E46" s="3">
-        <v>282400</v>
+        <v>244800</v>
       </c>
       <c r="F46" s="3">
-        <v>360400</v>
+        <v>287600</v>
       </c>
       <c r="G46" s="3">
-        <v>689400</v>
+        <v>367000</v>
       </c>
       <c r="H46" s="3">
-        <v>294900</v>
+        <v>702000</v>
       </c>
       <c r="I46" s="3">
-        <v>310300</v>
+        <v>300300</v>
       </c>
       <c r="J46" s="3">
+        <v>316000</v>
+      </c>
+      <c r="K46" s="3">
         <v>339600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>271500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>470400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>122000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>111700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>81500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>109900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16713700</v>
+        <v>17298600</v>
       </c>
       <c r="E47" s="3">
-        <v>16193700</v>
+        <v>17020600</v>
       </c>
       <c r="F47" s="3">
-        <v>16002800</v>
+        <v>16491000</v>
       </c>
       <c r="G47" s="3">
-        <v>15512800</v>
+        <v>16296600</v>
       </c>
       <c r="H47" s="3">
-        <v>14669000</v>
+        <v>15797600</v>
       </c>
       <c r="I47" s="3">
-        <v>12916700</v>
+        <v>14938400</v>
       </c>
       <c r="J47" s="3">
+        <v>13153900</v>
+      </c>
+      <c r="K47" s="3">
         <v>11552200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10205700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8965200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7689900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8648300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8305700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7913000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7771300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2791600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,97 +2610,103 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>130800</v>
-      </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>133200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>121100</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J48" s="3">
+        <v>123400</v>
+      </c>
+      <c r="K48" s="3">
         <v>114500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>113500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>62000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48400</v>
+        <v>48600</v>
       </c>
       <c r="E49" s="3">
-        <v>49000</v>
+        <v>49300</v>
       </c>
       <c r="F49" s="3">
-        <v>49700</v>
+        <v>49900</v>
       </c>
       <c r="G49" s="3">
-        <v>50500</v>
+        <v>50600</v>
       </c>
       <c r="H49" s="3">
-        <v>51200</v>
+        <v>51400</v>
       </c>
       <c r="I49" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="J49" s="3">
-        <v>52700</v>
+        <v>52900</v>
       </c>
       <c r="K49" s="3">
         <v>52700</v>
       </c>
       <c r="L49" s="3">
+        <v>52700</v>
+      </c>
+      <c r="M49" s="3">
         <v>55800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>156600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>159400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>157000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>158200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>467700</v>
+        <v>462100</v>
       </c>
       <c r="E52" s="3">
-        <v>412900</v>
+        <v>476300</v>
       </c>
       <c r="F52" s="3">
-        <v>273800</v>
+        <v>420500</v>
       </c>
       <c r="G52" s="3">
-        <v>504600</v>
+        <v>278800</v>
       </c>
       <c r="H52" s="3">
-        <v>500700</v>
+        <v>513900</v>
       </c>
       <c r="I52" s="3">
-        <v>332600</v>
+        <v>509900</v>
       </c>
       <c r="J52" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K52" s="3">
         <v>298000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>291800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>251300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>209000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>283800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>277300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>249700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>236300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>57000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17470200</v>
+        <v>18132300</v>
       </c>
       <c r="E54" s="3">
-        <v>16938000</v>
+        <v>17790900</v>
       </c>
       <c r="F54" s="3">
-        <v>16817500</v>
+        <v>17249000</v>
       </c>
       <c r="G54" s="3">
-        <v>16757300</v>
+        <v>17126300</v>
       </c>
       <c r="H54" s="3">
-        <v>15515900</v>
+        <v>17064900</v>
       </c>
       <c r="I54" s="3">
-        <v>13732700</v>
+        <v>15800800</v>
       </c>
       <c r="J54" s="3">
+        <v>13984800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12357000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10931500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9565000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8492300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9272800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8913900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8458000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8331700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2932700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>207500</v>
+        <v>282500</v>
       </c>
       <c r="E57" s="3">
-        <v>171100</v>
+        <v>211300</v>
       </c>
       <c r="F57" s="3">
-        <v>46200</v>
+        <v>174300</v>
       </c>
       <c r="G57" s="3">
-        <v>267700</v>
+        <v>47100</v>
       </c>
       <c r="H57" s="3">
-        <v>175800</v>
+        <v>272600</v>
       </c>
       <c r="I57" s="3">
-        <v>63400</v>
+        <v>179000</v>
       </c>
       <c r="J57" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K57" s="3">
         <v>58700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>85500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>74200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1082700</v>
+        <v>859600</v>
       </c>
       <c r="E58" s="3">
-        <v>1303400</v>
+        <v>1102500</v>
       </c>
       <c r="F58" s="3">
-        <v>1027500</v>
+        <v>1327400</v>
       </c>
       <c r="G58" s="3">
-        <v>648800</v>
+        <v>1046400</v>
       </c>
       <c r="H58" s="3">
-        <v>466400</v>
+        <v>660700</v>
       </c>
       <c r="I58" s="3">
-        <v>349200</v>
+        <v>475000</v>
       </c>
       <c r="J58" s="3">
+        <v>355600</v>
+      </c>
+      <c r="K58" s="3">
         <v>346600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>662600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>269400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>192500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>356700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>177400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>168600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>179000</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>126700</v>
+        <v>137100</v>
       </c>
       <c r="E59" s="3">
-        <v>128200</v>
+        <v>129000</v>
       </c>
       <c r="F59" s="3">
-        <v>265000</v>
+        <v>130600</v>
       </c>
       <c r="G59" s="3">
-        <v>186600</v>
+        <v>269800</v>
       </c>
       <c r="H59" s="3">
-        <v>109700</v>
+        <v>190100</v>
       </c>
       <c r="I59" s="3">
-        <v>181000</v>
+        <v>111700</v>
       </c>
       <c r="J59" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K59" s="3">
         <v>175900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>193200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>185500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>98200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>23900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1416900</v>
+        <v>1279300</v>
       </c>
       <c r="E60" s="3">
-        <v>1602800</v>
+        <v>1442900</v>
       </c>
       <c r="F60" s="3">
-        <v>1338700</v>
+        <v>1632200</v>
       </c>
       <c r="G60" s="3">
-        <v>1103100</v>
+        <v>1363300</v>
       </c>
       <c r="H60" s="3">
-        <v>751900</v>
+        <v>1123400</v>
       </c>
       <c r="I60" s="3">
-        <v>593500</v>
+        <v>765700</v>
       </c>
       <c r="J60" s="3">
+        <v>604400</v>
+      </c>
+      <c r="K60" s="3">
         <v>581300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>918200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>505700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>368700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>553500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>397800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>352400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>334700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7139200</v>
+        <v>7322400</v>
       </c>
       <c r="E61" s="3">
-        <v>6763100</v>
+        <v>7270300</v>
       </c>
       <c r="F61" s="3">
-        <v>7061300</v>
+        <v>6887300</v>
       </c>
       <c r="G61" s="3">
-        <v>7332800</v>
+        <v>7190900</v>
       </c>
       <c r="H61" s="3">
-        <v>6760800</v>
+        <v>7467400</v>
       </c>
       <c r="I61" s="3">
-        <v>5932100</v>
+        <v>6884900</v>
       </c>
       <c r="J61" s="3">
+        <v>6041000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5293400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4825800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4879800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4809100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5538600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5536900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5293000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5225000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>599400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3729400</v>
+        <v>4166600</v>
       </c>
       <c r="E62" s="3">
-        <v>3440100</v>
+        <v>3797900</v>
       </c>
       <c r="F62" s="3">
-        <v>3288800</v>
+        <v>3503300</v>
       </c>
       <c r="G62" s="3">
-        <v>3244000</v>
+        <v>3349200</v>
       </c>
       <c r="H62" s="3">
-        <v>3121900</v>
+        <v>3303600</v>
       </c>
       <c r="I62" s="3">
-        <v>2857500</v>
+        <v>3179200</v>
       </c>
       <c r="J62" s="3">
+        <v>2910000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2347800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1947700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1401400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1038900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>927700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>805100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>755900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>731900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>170700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12291900</v>
+        <v>12773700</v>
       </c>
       <c r="E66" s="3">
-        <v>11811200</v>
+        <v>12517500</v>
       </c>
       <c r="F66" s="3">
-        <v>11698000</v>
+        <v>12028000</v>
       </c>
       <c r="G66" s="3">
-        <v>11687000</v>
+        <v>11912800</v>
       </c>
       <c r="H66" s="3">
-        <v>10642100</v>
+        <v>11901600</v>
       </c>
       <c r="I66" s="3">
-        <v>9391500</v>
+        <v>10837500</v>
       </c>
       <c r="J66" s="3">
+        <v>9564000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8232300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7699000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6795200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6225400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7030300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6750600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6411200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6301200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>826900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2265200</v>
+        <v>2395300</v>
       </c>
       <c r="E72" s="3">
-        <v>2225400</v>
+        <v>2306800</v>
       </c>
       <c r="F72" s="3">
-        <v>2212500</v>
+        <v>2266200</v>
       </c>
       <c r="G72" s="3">
-        <v>2160500</v>
+        <v>2253200</v>
       </c>
       <c r="H72" s="3">
-        <v>1944800</v>
+        <v>2200200</v>
       </c>
       <c r="I72" s="3">
-        <v>1404500</v>
+        <v>1980500</v>
       </c>
       <c r="J72" s="3">
+        <v>1430300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1206700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1058500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>823600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>615300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>644900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>560800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>487400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>478100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>525400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5178300</v>
+        <v>5358600</v>
       </c>
       <c r="E76" s="3">
-        <v>5126800</v>
+        <v>5273400</v>
       </c>
       <c r="F76" s="3">
-        <v>5119500</v>
+        <v>5221000</v>
       </c>
       <c r="G76" s="3">
-        <v>5070300</v>
+        <v>5213500</v>
       </c>
       <c r="H76" s="3">
-        <v>4873800</v>
+        <v>5163400</v>
       </c>
       <c r="I76" s="3">
-        <v>4341200</v>
+        <v>4963300</v>
       </c>
       <c r="J76" s="3">
+        <v>4420900</v>
+      </c>
+      <c r="K76" s="3">
         <v>4124800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3232500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2769900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2266900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2242400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2163300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2046800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2030500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2105800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>61200</v>
+        <v>110300</v>
       </c>
       <c r="E81" s="3">
-        <v>36400</v>
+        <v>62400</v>
       </c>
       <c r="F81" s="3">
-        <v>74500</v>
+        <v>37100</v>
       </c>
       <c r="G81" s="3">
-        <v>237200</v>
+        <v>75900</v>
       </c>
       <c r="H81" s="3">
-        <v>781000</v>
+        <v>241500</v>
       </c>
       <c r="I81" s="3">
-        <v>219300</v>
+        <v>795300</v>
       </c>
       <c r="J81" s="3">
+        <v>223300</v>
+      </c>
+      <c r="K81" s="3">
         <v>169000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>271100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>201200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>75100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-52200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>56100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,46 +4224,47 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="F83" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="G83" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="H83" s="3">
-        <v>9400</v>
+        <v>5300</v>
       </c>
       <c r="I83" s="3">
-        <v>4600</v>
+        <v>9600</v>
       </c>
       <c r="J83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3500</v>
       </c>
       <c r="P83" s="3">
         <v>3500</v>
@@ -4074,10 +4273,13 @@
         <v>3500</v>
       </c>
       <c r="R83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S83" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77900</v>
+        <v>103400</v>
       </c>
       <c r="E89" s="3">
-        <v>23100</v>
+        <v>79300</v>
       </c>
       <c r="F89" s="3">
-        <v>29900</v>
+        <v>23600</v>
       </c>
       <c r="G89" s="3">
-        <v>144700</v>
+        <v>30500</v>
       </c>
       <c r="H89" s="3">
-        <v>190500</v>
+        <v>147300</v>
       </c>
       <c r="I89" s="3">
-        <v>52200</v>
+        <v>194000</v>
       </c>
       <c r="J89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>57900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>61800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-336000</v>
+        <v>-172600</v>
       </c>
       <c r="E94" s="3">
-        <v>-175200</v>
+        <v>-342200</v>
       </c>
       <c r="F94" s="3">
-        <v>-110500</v>
+        <v>-178400</v>
       </c>
       <c r="G94" s="3">
-        <v>-985800</v>
+        <v>-112600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2173200</v>
+        <v>-1003900</v>
       </c>
       <c r="I94" s="3">
-        <v>-943000</v>
+        <v>-2213100</v>
       </c>
       <c r="J94" s="3">
+        <v>-960300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-931100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-947200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-591000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>279700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-263100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-124200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22300</v>
+        <v>-8400</v>
       </c>
       <c r="E96" s="3">
-        <v>-16800</v>
+        <v>-22700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3000</v>
+        <v>-17200</v>
       </c>
       <c r="G96" s="3">
-        <v>-9200</v>
+        <v>-3100</v>
       </c>
       <c r="H96" s="3">
-        <v>-38200</v>
+        <v>-9400</v>
       </c>
       <c r="I96" s="3">
-        <v>-16300</v>
+        <v>-38900</v>
       </c>
       <c r="J96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-50300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>228300</v>
+        <v>141400</v>
       </c>
       <c r="E100" s="3">
-        <v>68400</v>
+        <v>232500</v>
       </c>
       <c r="F100" s="3">
-        <v>164800</v>
+        <v>69600</v>
       </c>
       <c r="G100" s="3">
-        <v>835300</v>
+        <v>167800</v>
       </c>
       <c r="H100" s="3">
-        <v>1941700</v>
+        <v>850600</v>
       </c>
       <c r="I100" s="3">
-        <v>845200</v>
+        <v>1977400</v>
       </c>
       <c r="J100" s="3">
+        <v>860700</v>
+      </c>
+      <c r="K100" s="3">
         <v>965500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>956700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>242800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>244400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>92200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>142300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29700</v>
+        <v>72100</v>
       </c>
       <c r="E102" s="3">
-        <v>-83600</v>
+        <v>-30300</v>
       </c>
       <c r="F102" s="3">
-        <v>84300</v>
+        <v>-85200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6100</v>
+        <v>85800</v>
       </c>
       <c r="H102" s="3">
-        <v>-41100</v>
+        <v>-6300</v>
       </c>
       <c r="I102" s="3">
-        <v>-45500</v>
+        <v>-41900</v>
       </c>
       <c r="J102" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K102" s="3">
         <v>35300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-290300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>319000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>56400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
     </row>
